--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D1842D-4DF4-4BC8-81BC-241BA5D4C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21279622-CA97-42EE-A452-B29C6C4BAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="historical_data" sheetId="4" r:id="rId1"/>
-    <sheet name="Veda" sheetId="1" r:id="rId2"/>
-    <sheet name="iamc_data" sheetId="2" r:id="rId3"/>
-    <sheet name="base_year_data" sheetId="3" r:id="rId4"/>
+    <sheet name="Veda" sheetId="1" r:id="rId1"/>
+    <sheet name="iamc_data" sheetId="2" r:id="rId2"/>
+    <sheet name="historical_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="64">
   <si>
     <t>~Inputcell: 3</t>
   </si>
@@ -83,6 +82,15 @@
     <t>elc_industry</t>
   </si>
   <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>non-road transport demand assumed to be constant</t>
+  </si>
+  <si>
+    <t>base-year demand (TWh)</t>
+  </si>
+  <si>
     <t>Model</t>
   </si>
   <si>
@@ -105,9 +113,6 @@
   </si>
   <si>
     <t>Downscaling[MESSAGEix-GLOBIOM 1.1-M-R12]</t>
-  </si>
-  <si>
-    <t>MEX</t>
   </si>
   <si>
     <t>Final Energy|Industry|Electricity</t>
@@ -155,31 +160,31 @@
     <t>oil</t>
   </si>
   <si>
-    <t>iso_code</t>
+    <t>Trd_electricity import</t>
+  </si>
+  <si>
+    <t>Trd_electricity export</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>EMBER Utilization Factors</t>
   </si>
   <si>
     <t>model_fuel</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_gem_ember</t>
-  </si>
-  <si>
-    <t>generation_twh_irena</t>
-  </si>
-  <si>
-    <t>generation_twh_ember</t>
-  </si>
-  <si>
-    <t>utilization_factor_irena</t>
-  </si>
-  <si>
-    <t>utilization_factor_ember</t>
-  </si>
-  <si>
-    <t>geothermal</t>
   </si>
   <si>
     <t>hydro</t>
@@ -194,23 +199,45 @@
     <t>wind</t>
   </si>
   <si>
-    <t>elc_roadtransport</t>
+    <t>IRENA Utilization Factors</t>
   </si>
   <si>
-    <t>non-road transport demand assumed to be constant</t>
+    <t>EMBER Generation (TWh)</t>
   </si>
   <si>
-    <t>base-year demand (TWh)</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>IND</t>
+    <t>IRENA Generation (TWh)</t>
+  </si>
+  <si>
+    <t>EMBER Capacity (GW)</t>
+  </si>
+  <si>
+    <t>IRENA Capacity (GW)</t>
+  </si>
+  <si>
+    <t>Electricity Trade Data (TWh) - Source: UNSD</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,11 +251,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <sz val="11"/>
@@ -262,8 +284,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,28 +313,25 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,21 +365,23 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -682,258 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA60FD70-F9D6-4F93-B63F-635FAB533C19}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>1.6</v>
-      </c>
-      <c r="D2">
-        <v>2.5</v>
-      </c>
-      <c r="E2">
-        <v>24.6</v>
-      </c>
-      <c r="F2">
-        <v>38.6</v>
-      </c>
-      <c r="G2">
-        <v>0.26</v>
-      </c>
-      <c r="H2">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>1161</v>
-      </c>
-      <c r="D3">
-        <v>1352.1</v>
-      </c>
-      <c r="E3">
-        <v>1287.0999999999999</v>
-      </c>
-      <c r="F3">
-        <v>1354.2</v>
-      </c>
-      <c r="G3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H3">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>48.1</v>
-      </c>
-      <c r="D4">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="E4">
-        <v>54</v>
-      </c>
-      <c r="F4">
-        <v>46.5</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-      <c r="H4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>149.4</v>
-      </c>
-      <c r="D5">
-        <v>173.9</v>
-      </c>
-      <c r="E5">
-        <v>165.5</v>
-      </c>
-      <c r="F5">
-        <v>174.9</v>
-      </c>
-      <c r="G5">
-        <v>0.36</v>
-      </c>
-      <c r="H5">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6">
-        <v>46.8</v>
-      </c>
-      <c r="D6">
-        <v>46.2</v>
-      </c>
-      <c r="E6">
-        <v>46.8</v>
-      </c>
-      <c r="F6">
-        <v>46.2</v>
-      </c>
-      <c r="G6">
-        <v>0.79</v>
-      </c>
-      <c r="H6">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-      <c r="E7">
-        <v>4.3</v>
-      </c>
-      <c r="F7">
-        <v>3.7</v>
-      </c>
-      <c r="G7">
-        <v>0.02</v>
-      </c>
-      <c r="H7">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>82.2</v>
-      </c>
-      <c r="D8">
-        <v>93.5</v>
-      </c>
-      <c r="E8">
-        <v>83.6</v>
-      </c>
-      <c r="F8">
-        <v>95.2</v>
-      </c>
-      <c r="G8">
-        <v>0.15</v>
-      </c>
-      <c r="H8">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>54.7</v>
-      </c>
-      <c r="D9">
-        <v>55.1</v>
-      </c>
-      <c r="E9">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="F9">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="G9">
-        <v>0.19</v>
-      </c>
-      <c r="H9">
-        <v>0.19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA19"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -994,12 +784,12 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="5">
-        <f>SUM(base_year_data!F2:F16)</f>
-        <v>340.2</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>54</v>
+      <c r="Q10" s="4">
+        <f>historical_data!X32</f>
+        <v>1829.3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
@@ -1027,7 +817,7 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1060,31 +850,31 @@
         <f>iamc_data!L1</f>
         <v>2050</v>
       </c>
-      <c r="Q15" s="6" t="s">
+      <c r="Q15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <v>2022</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>2025</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>2030</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>2035</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>2040</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>2045</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>2050</v>
       </c>
-      <c r="Y15" s="6" t="s">
+      <c r="Y15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1122,40 +912,40 @@
       </c>
       <c r="R16" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)</f>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="S16" s="1">
         <f>R16</f>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:X16" si="0">S16</f>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="0"/>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="0"/>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="0"/>
-        <v>5.751724137931034</v>
+        <v>30.927774736970136</v>
       </c>
       <c r="Y16" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="7:25" x14ac:dyDescent="0.45">
+      <c r="AA16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G17">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q17,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>2.6177999999999999</v>
@@ -1189,37 +979,37 @@
       </c>
       <c r="R17" s="1">
         <f>$Q$10*G17/SUM($G$16:$G$18)</f>
-        <v>180.53793103448274</v>
+        <v>970.77612357842236</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" ref="S17:X18" si="1">R17*H17/G17</f>
-        <v>237.80689655172412</v>
+        <v>1278.7188590889739</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="1"/>
-        <v>287.01379310344828</v>
+        <v>1543.3107928399115</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>347.43448275862067</v>
+        <v>1868.2007622291146</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="1"/>
-        <v>385.6</v>
+        <v>2073.4217519106405</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="1"/>
-        <v>442.1655172413794</v>
+        <v>2377.5819538202682</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="1"/>
-        <v>493.31724137931047</v>
+        <v>2652.6314804678791</v>
       </c>
       <c r="Y17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="7:26" x14ac:dyDescent="0.45">
       <c r="G18">
         <f>SUMIFS(iamc_data!F$2:F$50,iamc_data!$O$2:$O$50,Veda!$Q18,iamc_data!$B$2:$B$50,Veda!$C$5)</f>
         <v>2.2317</v>
@@ -1253,39 +1043,39 @@
       </c>
       <c r="R18" s="1">
         <f>$Q$10*G18/SUM($G$16:$G$18)</f>
-        <v>153.91034482758621</v>
+        <v>827.59610168460745</v>
       </c>
       <c r="S18" s="1">
         <f t="shared" si="1"/>
-        <v>176.97241379310347</v>
+        <v>951.6038699345213</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="1"/>
-        <v>225.64137931034483</v>
+        <v>1213.3032779906341</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>263.24827586206902</v>
+        <v>1415.5204909890733</v>
       </c>
       <c r="V18" s="1">
         <f t="shared" si="1"/>
-        <v>312.76551724137937</v>
+        <v>1681.7811895639481</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" si="1"/>
-        <v>349.20000000000005</v>
+        <v>1877.69417989418</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="1"/>
-        <v>396.54482758620696</v>
+        <v>2132.2735247014948</v>
       </c>
       <c r="Y18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:26" x14ac:dyDescent="0.45">
       <c r="Q19" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="R19" s="1">
         <f>$Q$10*G16/SUM($G$16:$G$18)-R16</f>
@@ -1293,30 +1083,112 @@
       </c>
       <c r="S19" s="1">
         <f t="shared" ref="S19:X19" si="2">$Q$10*H16/SUM($G$16:$G$18)-S16</f>
-        <v>1.2413793103448274</v>
+        <v>6.6750592957489516</v>
       </c>
       <c r="T19" s="1">
         <f t="shared" si="2"/>
-        <v>1.6206896551724137</v>
+        <v>8.7146607472277964</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="2"/>
-        <v>3.6896551724137927</v>
+        <v>19.839759573476044</v>
       </c>
       <c r="V19" s="1">
         <f t="shared" si="2"/>
-        <v>11.993103448275861</v>
+        <v>64.48848952948569</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="2"/>
-        <v>27.668965517241375</v>
+        <v>148.77965496969324</v>
       </c>
       <c r="X19" s="1">
         <f t="shared" si="2"/>
-        <v>47.944827586206891</v>
+        <v>257.80562346692614</v>
       </c>
       <c r="Y19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="7:26" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q22" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="7:26" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="Q23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="5">
+        <f>R15</f>
+        <v>2022</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" ref="S23:X23" si="3">S15</f>
+        <v>2025</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="3"/>
+        <v>2030</v>
+      </c>
+      <c r="U23" s="5">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="1">
+        <f>historical_data!Y87</f>
+        <v>10.3</v>
+      </c>
+      <c r="S24" s="1">
+        <f>AVERAGE(historical_data!U87:Z87)</f>
+        <v>9.4599999999999991</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="7:26" x14ac:dyDescent="0.45">
+      <c r="Q25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R25" s="1">
+        <f>historical_data!Y88</f>
+        <v>7.8</v>
+      </c>
+      <c r="S25" s="1">
+        <f>AVERAGE(historical_data!U88:Z88)</f>
+        <v>7.5400000000000009</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1324,29 +1196,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F1">
         <v>2020</v>
@@ -1370,10 +1244,10 @@
         <v>2050</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1381,19 +1255,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2.1932</v>
@@ -1417,10 +1291,10 @@
         <v>6.5776000000000003</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
@@ -1428,19 +1302,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>2.2431999999999999</v>
@@ -1464,10 +1338,10 @@
         <v>7.3983999999999996</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>14</v>
@@ -1475,19 +1349,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4">
         <v>8.3400000000000002E-2</v>
@@ -1511,10 +1385,10 @@
         <v>0.77859999999999996</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
@@ -1522,19 +1396,19 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>2.6177999999999999</v>
@@ -1558,10 +1432,10 @@
         <v>7.1531000000000002</v>
       </c>
       <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
       <c r="O5" t="s">
         <v>13</v>
@@ -1569,19 +1443,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>2.2317</v>
@@ -1605,10 +1479,10 @@
         <v>5.7499000000000002</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O6" t="s">
         <v>14</v>
@@ -1616,19 +1490,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>2.2355999999999998</v>
@@ -1652,10 +1526,10 @@
         <v>6.4865000000000004</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
         <v>14</v>
@@ -1663,19 +1537,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>2.6244000000000001</v>
@@ -1699,10 +1573,10 @@
         <v>7.4204999999999997</v>
       </c>
       <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
       </c>
       <c r="O8" t="s">
         <v>13</v>
@@ -1710,19 +1584,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
       </c>
       <c r="F9">
         <v>8.3299999999999999E-2</v>
@@ -1746,10 +1620,10 @@
         <v>2.4630999999999998</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -1757,19 +1631,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
       </c>
       <c r="F10">
         <v>8.2699999999999996E-2</v>
@@ -1793,10 +1667,10 @@
         <v>0.78910000000000002</v>
       </c>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
@@ -1804,19 +1678,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>2.6366000000000001</v>
@@ -1840,10 +1714,10 @@
         <v>8.7279</v>
       </c>
       <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
         <v>28</v>
-      </c>
-      <c r="N11" t="s">
-        <v>26</v>
       </c>
       <c r="O11" t="s">
         <v>13</v>
@@ -1851,19 +1725,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>2.1962000000000002</v>
@@ -1887,10 +1761,10 @@
         <v>5.8288000000000002</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O12" t="s">
         <v>14</v>
@@ -1898,19 +1772,19 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>2.5627</v>
@@ -1934,10 +1808,10 @@
         <v>7.2255000000000003</v>
       </c>
       <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
         <v>28</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
       </c>
       <c r="O13" t="s">
         <v>13</v>
@@ -1945,19 +1819,19 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
       </c>
       <c r="F14">
         <v>8.3199999999999996E-2</v>
@@ -1981,10 +1855,10 @@
         <v>2.3567</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
@@ -1992,19 +1866,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>2.5573999999999999</v>
@@ -2028,10 +1902,10 @@
         <v>7.4132999999999996</v>
       </c>
       <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
         <v>28</v>
-      </c>
-      <c r="N15" t="s">
-        <v>26</v>
       </c>
       <c r="O15" t="s">
         <v>13</v>
@@ -2039,19 +1913,19 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>2.2286999999999999</v>
@@ -2075,10 +1949,10 @@
         <v>3.7473000000000001</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -2086,19 +1960,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
       </c>
       <c r="F17">
         <v>8.3500000000000005E-2</v>
@@ -2122,10 +1996,10 @@
         <v>2.2770999999999999</v>
       </c>
       <c r="M17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
         <v>11</v>
@@ -2133,19 +2007,19 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>2.6133000000000002</v>
@@ -2169,10 +2043,10 @@
         <v>7.2698</v>
       </c>
       <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
         <v>28</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
       </c>
       <c r="O18" t="s">
         <v>13</v>
@@ -2180,19 +2054,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F19">
         <v>2.2277999999999998</v>
@@ -2216,10 +2090,10 @@
         <v>4.7828999999999997</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O19" t="s">
         <v>14</v>
@@ -2227,19 +2101,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>2.5956999999999999</v>
@@ -2263,10 +2137,10 @@
         <v>7.6502999999999997</v>
       </c>
       <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
         <v>28</v>
-      </c>
-      <c r="N20" t="s">
-        <v>26</v>
       </c>
       <c r="O20" t="s">
         <v>13</v>
@@ -2274,19 +2148,19 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
       </c>
       <c r="F21">
         <v>8.3199999999999996E-2</v>
@@ -2310,10 +2184,10 @@
         <v>3.0680999999999998</v>
       </c>
       <c r="M21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O21" t="s">
         <v>11</v>
@@ -2321,19 +2195,19 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
       </c>
       <c r="F22">
         <v>8.2799999999999999E-2</v>
@@ -2357,10 +2231,10 @@
         <v>2.9359999999999999</v>
       </c>
       <c r="M22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O22" t="s">
         <v>11</v>
@@ -2368,19 +2242,19 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>0.1953</v>
@@ -2404,30 +2278,30 @@
         <v>42.276600000000002</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>2.6053000000000002</v>
@@ -2451,30 +2325,30 @@
         <v>10.4336</v>
       </c>
       <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
         <v>33</v>
       </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>3.7279</v>
@@ -2498,30 +2372,30 @@
         <v>11.093</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>3.7279</v>
@@ -2545,30 +2419,30 @@
         <v>7.2782</v>
       </c>
       <c r="M26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>2.6053000000000002</v>
@@ -2592,30 +2466,30 @@
         <v>6.3018999999999998</v>
       </c>
       <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
         <v>33</v>
       </c>
-      <c r="N27" t="s">
-        <v>31</v>
-      </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28">
         <v>3.1892</v>
@@ -2639,30 +2513,30 @@
         <v>5.7312000000000003</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F29">
         <v>0.1953</v>
@@ -2686,30 +2560,30 @@
         <v>9.1948000000000008</v>
       </c>
       <c r="M29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>2.6053000000000002</v>
@@ -2733,30 +2607,30 @@
         <v>2.6432000000000002</v>
       </c>
       <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
         <v>33</v>
       </c>
-      <c r="N30" t="s">
-        <v>31</v>
-      </c>
       <c r="O30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31">
         <v>3.1892</v>
@@ -2780,30 +2654,30 @@
         <v>4.6989999999999998</v>
       </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>0.1953</v>
@@ -2827,30 +2701,30 @@
         <v>19.945699999999999</v>
       </c>
       <c r="M32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33">
         <v>0.1953</v>
@@ -2874,30 +2748,30 @@
         <v>6.9612999999999996</v>
       </c>
       <c r="M33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <v>3.7279</v>
@@ -2921,30 +2795,30 @@
         <v>7.0095000000000001</v>
       </c>
       <c r="M34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F35">
         <v>0.1953</v>
@@ -2968,30 +2842,30 @@
         <v>11.804</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F36">
         <v>2.6053000000000002</v>
@@ -3015,30 +2889,30 @@
         <v>3.5043000000000002</v>
       </c>
       <c r="M36" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="N36" t="s">
-        <v>31</v>
-      </c>
       <c r="O36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37">
         <v>3.7279</v>
@@ -3062,30 +2936,30 @@
         <v>6.5487000000000002</v>
       </c>
       <c r="M37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38">
         <v>3.1892</v>
@@ -3109,30 +2983,30 @@
         <v>5.1189999999999998</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F39">
         <v>0.1953</v>
@@ -3156,30 +3030,30 @@
         <v>12.518000000000001</v>
       </c>
       <c r="M39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F40">
         <v>2.6053000000000002</v>
@@ -3203,30 +3077,30 @@
         <v>2.5424000000000002</v>
       </c>
       <c r="M40" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" t="s">
         <v>33</v>
       </c>
-      <c r="N40" t="s">
-        <v>31</v>
-      </c>
       <c r="O40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>3.1892</v>
@@ -3250,30 +3124,30 @@
         <v>6.5633999999999997</v>
       </c>
       <c r="M41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>3.7279</v>
@@ -3297,30 +3171,30 @@
         <v>7.3906999999999998</v>
       </c>
       <c r="M42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>0.1953</v>
@@ -3344,30 +3218,30 @@
         <v>3.3246000000000002</v>
       </c>
       <c r="M43" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>2.6053000000000002</v>
@@ -3391,30 +3265,30 @@
         <v>2.4872999999999998</v>
       </c>
       <c r="M44" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" t="s">
         <v>33</v>
       </c>
-      <c r="N44" t="s">
-        <v>31</v>
-      </c>
       <c r="O44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F45">
         <v>3.7279</v>
@@ -3438,30 +3312,30 @@
         <v>7.2535999999999996</v>
       </c>
       <c r="M45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F46">
         <v>3.1892</v>
@@ -3485,30 +3359,30 @@
         <v>6.5091999999999999</v>
       </c>
       <c r="M46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F47">
         <v>3.7279</v>
@@ -3532,30 +3406,30 @@
         <v>5.0749000000000004</v>
       </c>
       <c r="M47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <v>2.6053000000000002</v>
@@ -3579,30 +3453,30 @@
         <v>2.1714000000000002</v>
       </c>
       <c r="M48" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" t="s">
         <v>33</v>
       </c>
-      <c r="N48" t="s">
-        <v>31</v>
-      </c>
       <c r="O48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F49">
         <v>3.1892</v>
@@ -3626,30 +3500,30 @@
         <v>6.7314999999999996</v>
       </c>
       <c r="M49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>3.1892</v>
@@ -3673,13 +3547,13 @@
         <v>3.1471</v>
       </c>
       <c r="M50" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3687,275 +3561,4571 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N2" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O2" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R2" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S2" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T2" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.55120678408349644</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.56262230919765166</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.50894216133942172</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.50714873867804477</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.50380517503805178</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.49062469639560874</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.52305561793547428</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.55943633009767468</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.48923679060665365</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.54014923710880947</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.5300065231572082</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.54350583460172497</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.59277492389649933</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.62897305040737761</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.57379869616568546</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0.65457561609631798</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.32343987823439879</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.30675375468566057</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.31135330020772134</v>
+      </c>
+      <c r="U3" s="9">
+        <v>0.35755784925152284</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.36242913550834932</v>
+      </c>
+      <c r="W3" s="9">
+        <v>0.39079184334861278</v>
+      </c>
+      <c r="X3" s="9">
+        <v>0.42295562310563695</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>0.40685542663069574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.71653214818993149</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.73782566864942978</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.75860528986295694</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.76554942611972032</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.796969584304135</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.78433378182380886</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.80218147145848917</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.78915699735877243</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.79466364064431649</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.79463965742241882</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.74109856448388545</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.70592036916237833</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.68299652501558394</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.64810008242168105</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.63968556935402887</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>0.60612421815967543</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.59186303001676133</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.59922104058695769</v>
+      </c>
+      <c r="T4" s="9">
+        <v>0.62783817039894319</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.60652756341834713</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.57817160320012806</v>
+      </c>
+      <c r="W4" s="9">
+        <v>0.62009503817291545</v>
+      </c>
+      <c r="X4" s="9">
+        <v>0.66585892127934132</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>0.70675954342511094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.50659221680263911</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.47576029779038992</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.5116238197990608</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.57792088199617675</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.59917814478547582</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.55546723427807665</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.51246377766069551</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.55296828215690175</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.52566503850061819</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.56094084565178148</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.60285209361241354</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.55777603176229906</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.46262917567892337</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.28597033257258586</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.25966871448368078</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.24507244336885503</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.2642637659515315</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.26718171919803441</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.24413875139096738</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.25179246841308106</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.26424237799061323</v>
+      </c>
+      <c r="W5" s="9">
+        <v>0.21353289467171793</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.16467833870451151</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.18513279169411459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.3706795776207561</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.33312241439281248</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.31638499446995594</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.29105809065892524</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.40141804594290165</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.35920557384399371</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.38910909151215634</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.41166398066075749</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.37899280120993384</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.34903017269674225</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.34606194617040481</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.39952821087808832</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.34553973796520132</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.38248819613257423</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.39063466047946332</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.35951351304693097</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.34209269704837791</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.34654819423436883</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.35201227597157908</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.40670788200728542</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.40642050047568828</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0.39127090568697159</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0.42292078853670473</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0.35978319908695094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.6294504582175815</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.79279143164114962</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.81209709911361805</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.76131479989255979</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.87615185533191575</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.60237279843444236</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.51604027631424887</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.49402624462472838</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.42198652303054485</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.42107265881598976</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.55119313731109454</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.76947326187883303</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.79144456544582642</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.79550448023537967</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.68512900728381598</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.75662416457316206</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.74852664675862279</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.6298743282013981</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.65748710281380907</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0.76036152530273027</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0.75110114357295832</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.73948357376651719</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0.77770369472393952</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0.73559934559128759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>0.7</v>
-      </c>
-      <c r="D2">
-        <v>2.4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="B8" s="9">
+        <v>0.49024552625738904</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.43317552097481471</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.42911926842309039</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.45501112281934197</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.39548639090339333</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.33833162633892372</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.24527952610144385</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.15787931213779932</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.17483958725491541</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.14179968517868063</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.11321008346880737</v>
+      </c>
+      <c r="M8" s="9">
+        <v>9.5640824209096406E-2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>9.4690558401600802E-2</v>
+      </c>
+      <c r="O8" s="9">
+        <v>9.5955282135559136E-2</v>
+      </c>
+      <c r="P8" s="9">
+        <v>9.9961573213414076E-2</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>7.894530437421779E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>7.6292678497301786E-2</v>
+      </c>
+      <c r="S8" s="9">
+        <v>7.0763375002415127E-2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>4.6357462392508632E-2</v>
+      </c>
+      <c r="U8" s="9">
+        <v>2.4767252367813866E-2</v>
+      </c>
+      <c r="V8" s="9">
+        <v>2.0676420048499254E-2</v>
+      </c>
+      <c r="W8" s="9">
+        <v>2.1043300781395491E-2</v>
+      </c>
+      <c r="X8" s="9">
+        <v>2.2646432571477804E-2</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>2.5681859514084471E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9">
+        <v>65535</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.11415525114155252</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.22831050228310504</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.17938682322243965</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.16622606745173435</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.24214750242147504</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.2447203196347032</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.14828102727646106</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.13222792617197865</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.1346606850815466</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.15091922394369006</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.14984293532821658</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0.16868874683924204</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0.15611501912871775</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0.17136793971651898</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0.1770803861573447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.1918779753230351</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.15293876595246458</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.14818911483592839</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.12065189145042136</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.15670130274811542</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.15435439149839722</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.16870412114906652</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.17006802721088435</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.16030786244292239</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.16992735005242995</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.16854788977349106</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.16897517088011019</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.18099875946894714</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.18598257799989093</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.16993738988361959</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.14896145565462054</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.17282389066552117</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.18289165502526358</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.19508935098744778</v>
+      </c>
+      <c r="U10" s="9">
+        <v>0.19267312582702456</v>
+      </c>
+      <c r="V10" s="9">
+        <v>0.17890046230508347</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0.193981308965019</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0.19071250518640001</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0.20950575930337231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I16" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N16" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R16" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S16" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T16" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U16" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V16" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W16" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X16" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.92615514320577175</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.81099996042764533</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.82167224457063737</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.76898932025082123</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.78346966534340223</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.73673456763973511</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.67271232013327142</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.68553215888333363</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.5335674596010449</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.51284202847520821</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.61622005122643342</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.54638364289314678</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.69484778512841583</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0.78135528101999385</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.75427583820121702</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.60152027427680455</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.23372519435278491</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.20200500305682581</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.21089944825947265</v>
+      </c>
+      <c r="U17" s="9">
+        <v>0.23346470815738626</v>
+      </c>
+      <c r="V17" s="9">
+        <v>0.22394282789661374</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0.23983833725154463</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0.26268894842528234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.6562589339986783</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.64840737974378071</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.65379634214798832</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.67136658081725142</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.67078607739887808</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.68516450636909287</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.68437729020656124</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.68164613352272707</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.69256828336161436</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.67375132675720706</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.63619962664451646</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.57419002737404723</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.54864593581519505</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0.55078543214529752</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.53285577562133479</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.52512171974026645</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0.54544989126569188</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.55432901843813465</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.54351512226161725</v>
+      </c>
+      <c r="U18" s="9">
+        <v>0.53760738521190743</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.53462731121505191</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0.53361890626399289</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0.57177833891742502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.53634672841876152</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.50289690778182383</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.48997400107692962</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.52589817500167535</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.56012993747044437</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.54921049267894595</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.51942126765131147</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.51190447017143426</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.57063251009305083</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.50637563843705091</v>
+      </c>
+      <c r="L19" s="9">
+        <v>0.59269411500882951</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.54873651170174065</v>
+      </c>
+      <c r="N19" s="9">
+        <v>0.52058707412271554</v>
+      </c>
+      <c r="O19" s="9">
+        <v>0.35226839883156225</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.25908635136304076</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.24104761435707611</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.25163766184456327</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.25953271151682106</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.25362733623682032</v>
+      </c>
+      <c r="U19" s="9">
+        <v>0.24673077590042675</v>
+      </c>
+      <c r="V19" s="9">
+        <v>0.25996599807553605</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0.25285993124018152</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0.20182150983689692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.3374870914559655</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.32230006775510378</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.30359355498235663</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.25853504497430296</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.28624022314991371</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.30045116693533575</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.33708739474205707</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.35786883027868316</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.35379789064905481</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.32803703550793484</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.31487080974576742</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.33551256009891262</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0.35308292438536631</v>
+      </c>
+      <c r="O20" s="9">
+        <v>0.32549288011235827</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.35401833291244655</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.32840520966892622</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.31200798972811922</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0.30279078208234245</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.31133287056461517</v>
+      </c>
+      <c r="U20" s="9">
+        <v>0.33952699547617743</v>
+      </c>
+      <c r="V20" s="9">
+        <v>0.37031923094731656</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0.35763339217297302</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0.36330633881396285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.67463358559248976</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.73635383091592799</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.8164513665055062</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.79688339376846629</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.72481372500535746</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.58060345999130247</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.51789895796745111</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.50817789378020128</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.45577592321673982</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.39689878234398784</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.49062708966202406</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.66323341166580696</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0.77452303165778269</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0.79303342503964391</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.68525201055442331</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.71948539286786417</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0.74140047558104627</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.64020271817459351</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.64339010789186557</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0.67310451771931945</v>
+      </c>
+      <c r="V21" s="9">
+        <v>0.76796527525221903</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0.74166944478118557</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0.7879624297894694</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.17720087513261917</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.17550509108599993</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.18528032422869742</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.18296467118150853</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.15907203986845228</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.14242484796911359</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.15141467605032932</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.1532892015016751</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.16448877281244687</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.1556085545319251</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.12802567443430526</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0.10811299533641031</v>
+      </c>
+      <c r="N22" s="9">
+        <v>8.9479674830827402E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>9.8629874465586215E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>9.7348308588321997E-2</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>9.4034176456629232E-2</v>
+      </c>
+      <c r="R22" s="9">
+        <v>7.6304742744512793E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <v>7.7298498516814765E-2</v>
+      </c>
+      <c r="T22" s="9">
+        <v>5.8998220557805604E-2</v>
+      </c>
+      <c r="U22" s="9">
+        <v>4.2524667780158308E-2</v>
+      </c>
+      <c r="V22" s="9">
+        <v>2.1405234787563447E-2</v>
+      </c>
+      <c r="W22" s="9">
+        <v>2.486717047371282E-2</v>
+      </c>
+      <c r="X22" s="9">
+        <v>2.4708099525161863E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9">
+        <v>0.15410443297735871</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.15411384538901315</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.15411320842128429</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.1541168973158169</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.1541125620553008</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0.15410710199858738</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.15659276568267702</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.15410995196870808</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.13530737627185596</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.11570591304034018</v>
+      </c>
+      <c r="M23" s="9">
+        <v>6.296530820143173E-2</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.11346214529445367</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.12030836176353334</v>
+      </c>
+      <c r="P23" s="9">
+        <v>9.3852233882114999E-2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.11991091410355517</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.11649130783487328</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0.11339457449910567</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.12919793014915235</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0.14227518526568148</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.15841134011670518</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0.15137910145487501</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0.15060599528352506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.16000004852508018</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.11224565216756209</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.15678704856787049</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.11830964878590024</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.1174508141457906</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.14319582799232278</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.12425463761356775</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.13660247177874596</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0.13190552615066375</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0.15250343249427917</v>
+      </c>
+      <c r="L24" s="9">
+        <v>0.13943871705568114</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.13778601609109956</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.15222622568771019</v>
+      </c>
+      <c r="O24" s="9">
+        <v>0.15269918258186849</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.13839388059193961</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.14502662781202258</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0.14427542004685923</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0.16566242312279042</v>
+      </c>
+      <c r="T24" s="9">
+        <v>0.17795028991560258</v>
+      </c>
+      <c r="U24" s="9">
+        <v>0.19080736612574969</v>
+      </c>
+      <c r="V24" s="9">
+        <v>0.18806181018385656</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0.17741991108220906</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0.18903531409943225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H31" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J31" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M31" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N31" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P31" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R31" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S31" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T31" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U31" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V31" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W31" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X31" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="10">
+        <v>571.39</v>
+      </c>
+      <c r="C32" s="10">
+        <v>586.08999999999992</v>
+      </c>
+      <c r="D32" s="10">
+        <v>609.64</v>
+      </c>
+      <c r="E32" s="10">
+        <v>638.13</v>
+      </c>
+      <c r="F32" s="10">
+        <v>698.31999999999994</v>
+      </c>
+      <c r="G32" s="10">
+        <v>704.5200000000001</v>
+      </c>
+      <c r="H32" s="10">
+        <v>744.42999999999984</v>
+      </c>
+      <c r="I32" s="10">
+        <v>796.25999999999988</v>
+      </c>
+      <c r="J32" s="10">
+        <v>828.41000000000008</v>
+      </c>
+      <c r="K32" s="10">
+        <v>879.71</v>
+      </c>
+      <c r="L32" s="10">
+        <v>937.46999999999991</v>
+      </c>
+      <c r="M32" s="10">
+        <v>1034</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1091.8400000000001</v>
+      </c>
+      <c r="O32" s="10">
+        <v>1146.1400000000001</v>
+      </c>
+      <c r="P32" s="10">
+        <v>1262.2199999999998</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1322.1</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1401.7399999999998</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1471.33</v>
+      </c>
+      <c r="T32" s="10">
+        <v>1579.1799999999998</v>
+      </c>
+      <c r="U32" s="10">
+        <v>1622.1</v>
+      </c>
+      <c r="V32" s="10">
+        <v>1581.9399999999998</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1695.51</v>
+      </c>
+      <c r="X32" s="10">
+        <v>1829.3</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>1958.2399999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2.14</v>
+      </c>
+      <c r="E33" s="11">
+        <v>2.71</v>
+      </c>
+      <c r="F33" s="11">
+        <v>3.31</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4.04</v>
+      </c>
+      <c r="H33" s="11">
+        <v>5.59</v>
+      </c>
+      <c r="I33" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="J33" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K33" s="11">
+        <v>11.64</v>
+      </c>
+      <c r="L33" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="M33" s="11">
+        <v>17.14</v>
+      </c>
+      <c r="N33" s="11">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="O33" s="11">
+        <v>22.48</v>
+      </c>
+      <c r="P33" s="11">
+        <v>24.68</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>30.62</v>
+      </c>
+      <c r="R33" s="11">
+        <v>24.82</v>
+      </c>
+      <c r="S33" s="11">
+        <v>24.91</v>
+      </c>
+      <c r="T33" s="11">
+        <v>27.22</v>
+      </c>
+      <c r="U33" s="11">
+        <v>31.51</v>
+      </c>
+      <c r="V33" s="11">
+        <v>32.86</v>
+      </c>
+      <c r="W33" s="11">
+        <v>35.5</v>
+      </c>
+      <c r="X33" s="11">
+        <v>38.57</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="11">
+        <v>390.23</v>
+      </c>
+      <c r="C34" s="11">
+        <v>408.29</v>
+      </c>
+      <c r="D34" s="11">
+        <v>426.7</v>
+      </c>
+      <c r="E34" s="11">
+        <v>441.47</v>
+      </c>
+      <c r="F34" s="11">
+        <v>463.01</v>
+      </c>
+      <c r="G34" s="11">
+        <v>478.48</v>
+      </c>
+      <c r="H34" s="11">
+        <v>505.46</v>
+      </c>
+      <c r="I34" s="11">
+        <v>533.27</v>
+      </c>
+      <c r="J34" s="11">
+        <v>573.12</v>
+      </c>
+      <c r="K34" s="11">
+        <v>611.11</v>
+      </c>
+      <c r="L34" s="11">
+        <v>642.97</v>
+      </c>
+      <c r="M34" s="11">
+        <v>701.25</v>
+      </c>
+      <c r="N34" s="11">
+        <v>787.13</v>
+      </c>
+      <c r="O34" s="11">
+        <v>847.97</v>
+      </c>
+      <c r="P34" s="11">
+        <v>949.93</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>1006.55</v>
+      </c>
+      <c r="R34" s="11">
+        <v>1073.5999999999999</v>
+      </c>
+      <c r="S34" s="11">
+        <v>1115.24</v>
+      </c>
+      <c r="T34" s="11">
+        <v>1198.8599999999999</v>
+      </c>
+      <c r="U34" s="11">
+        <v>1198.76</v>
+      </c>
+      <c r="V34" s="11">
+        <v>1143.78</v>
+      </c>
+      <c r="W34" s="11">
+        <v>1255.56</v>
+      </c>
+      <c r="X34" s="11">
+        <v>1354.23</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>1471.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11">
+        <v>55.96</v>
+      </c>
+      <c r="C35" s="11">
+        <v>55.93</v>
+      </c>
+      <c r="D35" s="11">
+        <v>62.88</v>
+      </c>
+      <c r="E35" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="F35" s="11">
+        <v>76.58</v>
+      </c>
+      <c r="G35" s="11">
+        <v>75.47</v>
+      </c>
+      <c r="H35" s="11">
+        <v>74.7</v>
+      </c>
+      <c r="I35" s="11">
+        <v>90.05</v>
+      </c>
+      <c r="J35" s="11">
+        <v>85.88</v>
+      </c>
+      <c r="K35" s="11">
+        <v>104.37</v>
+      </c>
+      <c r="L35" s="11">
+        <v>118.03</v>
+      </c>
+      <c r="M35" s="11">
+        <v>117.56</v>
+      </c>
+      <c r="N35" s="11">
+        <v>96.25</v>
+      </c>
+      <c r="O35" s="11">
+        <v>66.31</v>
+      </c>
+      <c r="P35" s="11">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>64.77</v>
+      </c>
+      <c r="R35" s="11">
+        <v>72.62</v>
+      </c>
+      <c r="S35" s="11">
+        <v>74.989999999999995</v>
+      </c>
+      <c r="T35" s="11">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="U35" s="11">
+        <v>71.95</v>
+      </c>
+      <c r="V35" s="11">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="W35" s="11">
+        <v>60.4</v>
+      </c>
+      <c r="X35" s="11">
+        <v>46.48</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>52.61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="11">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="C36" s="11">
+        <v>72.02</v>
+      </c>
+      <c r="D36" s="11">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="E36" s="11">
+        <v>69.3</v>
+      </c>
+      <c r="F36" s="11">
+        <v>100.64</v>
+      </c>
+      <c r="G36" s="11">
+        <v>97.42</v>
+      </c>
+      <c r="H36" s="11">
+        <v>112.62</v>
+      </c>
+      <c r="I36" s="11">
+        <v>122.61</v>
+      </c>
+      <c r="J36" s="11">
+        <v>115.17</v>
+      </c>
+      <c r="K36" s="11">
+        <v>106.34</v>
+      </c>
+      <c r="L36" s="11">
+        <v>108.74</v>
+      </c>
+      <c r="M36" s="11">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="N36" s="11">
+        <v>115.78</v>
+      </c>
+      <c r="O36" s="11">
+        <v>131.97999999999999</v>
+      </c>
+      <c r="P36" s="11">
+        <v>139</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>133.28</v>
+      </c>
+      <c r="R36" s="11">
+        <v>128.38</v>
+      </c>
+      <c r="S36" s="11">
+        <v>135.82</v>
+      </c>
+      <c r="T36" s="11">
+        <v>139.75</v>
+      </c>
+      <c r="U36" s="11">
+        <v>162.07</v>
+      </c>
+      <c r="V36" s="11">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="W36" s="11">
+        <v>160.34</v>
+      </c>
+      <c r="X36" s="11">
+        <v>174.94</v>
+      </c>
+      <c r="Y36" s="11">
+        <v>149.16999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11">
+        <v>15.77</v>
+      </c>
+      <c r="C37" s="11">
+        <v>18.89</v>
+      </c>
+      <c r="D37" s="11">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="E37" s="11">
+        <v>18.14</v>
+      </c>
+      <c r="F37" s="11">
+        <v>21.26</v>
+      </c>
+      <c r="G37" s="11">
+        <v>17.73</v>
+      </c>
+      <c r="H37" s="11">
+        <v>17.63</v>
+      </c>
+      <c r="I37" s="11">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="J37" s="11">
+        <v>15.23</v>
+      </c>
+      <c r="K37" s="11">
+        <v>16.82</v>
+      </c>
+      <c r="L37" s="11">
+        <v>23.08</v>
+      </c>
+      <c r="M37" s="11">
+        <v>32.22</v>
+      </c>
+      <c r="N37" s="11">
+        <v>33.14</v>
+      </c>
+      <c r="O37" s="11">
+        <v>33.31</v>
+      </c>
+      <c r="P37" s="11">
+        <v>34.69</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>38.31</v>
+      </c>
+      <c r="R37" s="11">
+        <v>37.9</v>
+      </c>
+      <c r="S37" s="11">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="T37" s="11">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="U37" s="11">
+        <v>45.16</v>
+      </c>
+      <c r="V37" s="11">
+        <v>44.61</v>
+      </c>
+      <c r="W37" s="11">
+        <v>43.92</v>
+      </c>
+      <c r="X37" s="11">
+        <v>46.19</v>
+      </c>
+      <c r="Y37" s="11">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="11">
+        <v>29.16</v>
+      </c>
+      <c r="C38" s="11">
+        <v>26.79</v>
+      </c>
+      <c r="D38" s="11">
+        <v>27.93</v>
+      </c>
+      <c r="E38" s="11">
+        <v>31.09</v>
+      </c>
+      <c r="F38" s="11">
+        <v>28.27</v>
+      </c>
+      <c r="G38" s="11">
+        <v>25.37</v>
+      </c>
+      <c r="H38" s="11">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="I38" s="11">
+        <v>13.36</v>
+      </c>
+      <c r="J38" s="11">
+        <v>15.27</v>
+      </c>
+      <c r="K38" s="11">
+        <v>13.08</v>
+      </c>
+      <c r="L38" s="11">
+        <v>10.78</v>
+      </c>
+      <c r="M38" s="11">
+        <v>9.35</v>
+      </c>
+      <c r="N38" s="11">
+        <v>10.07</v>
+      </c>
+      <c r="O38" s="11">
+        <v>10.65</v>
+      </c>
+      <c r="P38" s="11">
+        <v>11.55</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>9.26</v>
+      </c>
+      <c r="R38" s="11">
+        <v>9.41</v>
+      </c>
+      <c r="S38" s="11">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="T38" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="U38" s="11">
+        <v>3.07</v>
+      </c>
+      <c r="V38" s="11">
+        <v>3.09</v>
+      </c>
+      <c r="W38" s="11">
+        <v>3.39</v>
+      </c>
+      <c r="X38" s="11">
+        <v>3.68</v>
+      </c>
+      <c r="Y38" s="11">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="N39" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="O39" s="11">
+        <v>3.43</v>
+      </c>
+      <c r="P39" s="11">
+        <v>4.91</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>6.57</v>
+      </c>
+      <c r="R39" s="11">
+        <v>11.56</v>
+      </c>
+      <c r="S39" s="11">
+        <v>21.54</v>
+      </c>
+      <c r="T39" s="11">
+        <v>36.33</v>
+      </c>
+      <c r="U39" s="11">
+        <v>46.27</v>
+      </c>
+      <c r="V39" s="11">
+        <v>58.68</v>
+      </c>
+      <c r="W39" s="11">
+        <v>68.31</v>
+      </c>
+      <c r="X39" s="11">
+        <v>95.16</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>113.41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1.58</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2.09</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2.6</v>
+      </c>
+      <c r="F40" s="11">
+        <v>5.23</v>
+      </c>
+      <c r="G40" s="11">
+        <v>5.99</v>
+      </c>
+      <c r="H40" s="11">
+        <v>9.34</v>
+      </c>
+      <c r="I40" s="11">
+        <v>11.68</v>
+      </c>
+      <c r="J40" s="11">
+        <v>14.38</v>
+      </c>
+      <c r="K40" s="11">
+        <v>16.27</v>
+      </c>
+      <c r="L40" s="11">
+        <v>19.46</v>
+      </c>
+      <c r="M40" s="11">
+        <v>23.95</v>
+      </c>
+      <c r="N40" s="11">
+        <v>27.43</v>
+      </c>
+      <c r="O40" s="11">
+        <v>30.01</v>
+      </c>
+      <c r="P40" s="11">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>32.74</v>
+      </c>
+      <c r="R40" s="11">
+        <v>43.45</v>
+      </c>
+      <c r="S40" s="11">
+        <v>52.63</v>
+      </c>
+      <c r="T40" s="11">
+        <v>60.31</v>
+      </c>
+      <c r="U40" s="11">
+        <v>63.31</v>
+      </c>
+      <c r="V40" s="11">
+        <v>60.43</v>
+      </c>
+      <c r="W40" s="11">
+        <v>68.09</v>
+      </c>
+      <c r="X40" s="11">
+        <v>70.05</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A44" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H45" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I45" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L45" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M45" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N45" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O45" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P45" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R45" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S45" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T45" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U45" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V45" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W45" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X45" s="8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A46" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="10">
+        <v>563.61920999999995</v>
+      </c>
+      <c r="C46" s="10">
+        <v>568.52094799999998</v>
+      </c>
+      <c r="D46" s="10">
+        <v>587.82039399999996</v>
+      </c>
+      <c r="E46" s="10">
+        <v>610.77497499999993</v>
+      </c>
+      <c r="F46" s="10">
+        <v>646.25317599999994</v>
+      </c>
+      <c r="G46" s="10">
+        <v>680.369463</v>
+      </c>
+      <c r="H46" s="10">
+        <v>721.78285200000005</v>
+      </c>
+      <c r="I46" s="10">
+        <v>776.38187500000004</v>
+      </c>
+      <c r="J46" s="10">
+        <v>820.38496800000007</v>
+      </c>
+      <c r="K46" s="10">
+        <v>857.42248800000004</v>
+      </c>
+      <c r="L46" s="10">
+        <v>921.28221099999996</v>
+      </c>
+      <c r="M46" s="10">
+        <v>988.91190400000005</v>
+      </c>
+      <c r="N46" s="10">
+        <v>1070.452575</v>
+      </c>
+      <c r="O46" s="10">
+        <v>1126.03774</v>
+      </c>
+      <c r="P46" s="10">
+        <v>1202.9179689999999</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>1294.1903179999999</v>
+      </c>
+      <c r="R46" s="10">
+        <v>1355.3692000000001</v>
+      </c>
+      <c r="S46" s="10">
+        <v>1428.1222829999999</v>
+      </c>
+      <c r="T46" s="10">
+        <v>1511.3393689999998</v>
+      </c>
+      <c r="U46" s="10">
+        <v>1597.655278</v>
+      </c>
+      <c r="V46" s="10">
+        <v>1619.7945120000002</v>
+      </c>
+      <c r="W46" s="10">
+        <v>1624.5931880000001</v>
+      </c>
+      <c r="X46" s="10">
+        <v>1735.3183390000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2.814441</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2.9511509999999999</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3.4832550000000002</v>
+      </c>
+      <c r="E47" s="11">
+        <v>4.1322770000000002</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5.1441699999999999</v>
+      </c>
+      <c r="G47" s="11">
+        <v>6.1981600000000006</v>
+      </c>
+      <c r="H47" s="11">
+        <v>7.3552390000000001</v>
+      </c>
+      <c r="I47" s="11">
+        <v>9.2891490000000001</v>
+      </c>
+      <c r="J47" s="11">
+        <v>10.342782</v>
+      </c>
+      <c r="K47" s="11">
+        <v>11.282382999999999</v>
+      </c>
+      <c r="L47" s="11">
+        <v>16.974319000000001</v>
+      </c>
+      <c r="M47" s="11">
+        <v>17.600090999999999</v>
+      </c>
+      <c r="N47" s="11">
+        <v>23.914817999999997</v>
+      </c>
+      <c r="O47" s="11">
+        <v>28.613111999999997</v>
+      </c>
+      <c r="P47" s="11">
+        <v>33.236034000000004</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>28.866459999999996</v>
+      </c>
+      <c r="R47" s="11">
+        <v>18.212264000000001</v>
+      </c>
+      <c r="S47" s="11">
+        <v>16.664293999999998</v>
+      </c>
+      <c r="T47" s="11">
+        <v>18.728638999999998</v>
+      </c>
+      <c r="U47" s="11">
+        <v>20.912963999999999</v>
+      </c>
+      <c r="V47" s="11">
+        <v>20.662521999999999</v>
+      </c>
+      <c r="W47" s="11">
+        <v>22.253251000000002</v>
+      </c>
+      <c r="X47" s="11">
+        <v>24.551217999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="11">
+        <v>398.14011999999997</v>
+      </c>
+      <c r="C48" s="11">
+        <v>402.047481</v>
+      </c>
+      <c r="D48" s="11">
+        <v>418.91692399999999</v>
+      </c>
+      <c r="E48" s="11">
+        <v>439.27336700000001</v>
+      </c>
+      <c r="F48" s="11">
+        <v>458.73731099999998</v>
+      </c>
+      <c r="G48" s="11">
+        <v>476.19325400000002</v>
+      </c>
+      <c r="H48" s="11">
+        <v>494.04950300000002</v>
+      </c>
+      <c r="I48" s="11">
+        <v>523.62525000000005</v>
+      </c>
+      <c r="J48" s="11">
+        <v>551.80562199999997</v>
+      </c>
+      <c r="K48" s="11">
+        <v>593.3918000000001</v>
+      </c>
+      <c r="L48" s="11">
+        <v>627.24084800000003</v>
+      </c>
+      <c r="M48" s="11">
+        <v>672.806332</v>
+      </c>
+      <c r="N48" s="11">
+        <v>739.146838</v>
+      </c>
+      <c r="O48" s="11">
+        <v>819.30900600000007</v>
+      </c>
+      <c r="P48" s="11">
+        <v>888.70661899999993</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>980.78397400000006</v>
+      </c>
+      <c r="R48" s="11">
+        <v>1044.4478120000001</v>
+      </c>
+      <c r="S48" s="11">
+        <v>1093.8221880000001</v>
+      </c>
+      <c r="T48" s="11">
+        <v>1149.472673</v>
+      </c>
+      <c r="U48" s="11">
+        <v>1204.822467</v>
+      </c>
+      <c r="V48" s="11">
+        <v>1193.453534</v>
+      </c>
+      <c r="W48" s="11">
+        <v>1195.393597</v>
+      </c>
+      <c r="X48" s="11">
+        <v>1287.1116669999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="11">
+        <v>59.268980999999997</v>
+      </c>
+      <c r="C49" s="11">
+        <v>59.128382999999999</v>
+      </c>
+      <c r="D49" s="11">
+        <v>60.233739999999997</v>
+      </c>
+      <c r="E49" s="11">
+        <v>66.255597999999992</v>
+      </c>
+      <c r="F49" s="11">
+        <v>71.606205000000003</v>
+      </c>
+      <c r="G49" s="11">
+        <v>74.643812999999994</v>
+      </c>
+      <c r="H49" s="11">
+        <v>75.710014000000001</v>
+      </c>
+      <c r="I49" s="11">
+        <v>83.348249999999993</v>
+      </c>
+      <c r="J49" s="11">
+        <v>93.201521999999997</v>
+      </c>
+      <c r="K49" s="11">
+        <v>94.20526799999999</v>
+      </c>
+      <c r="L49" s="11">
+        <v>116.02822999999999</v>
+      </c>
+      <c r="M49" s="11">
+        <v>115.646368</v>
+      </c>
+      <c r="N49" s="11">
+        <v>108.29788000000001</v>
+      </c>
+      <c r="O49" s="11">
+        <v>81.683047000000002</v>
+      </c>
+      <c r="P49" s="11">
+        <v>63.877936999999996</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>63.709078999999996</v>
+      </c>
+      <c r="R49" s="11">
+        <v>69.141384000000002</v>
+      </c>
+      <c r="S49" s="11">
+        <v>72.854422</v>
+      </c>
+      <c r="T49" s="11">
+        <v>74.022139999999993</v>
+      </c>
+      <c r="U49" s="11">
+        <v>70.505566999999999</v>
+      </c>
+      <c r="V49" s="11">
+        <v>73.571229000000002</v>
+      </c>
+      <c r="W49" s="11">
+        <v>68.674893999999995</v>
+      </c>
+      <c r="X49" s="11">
+        <v>53.958953000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="11">
+        <v>74.638721000000004</v>
+      </c>
+      <c r="C50" s="11">
+        <v>74.447105999999991</v>
+      </c>
+      <c r="D50" s="11">
+        <v>71.459827000000004</v>
+      </c>
+      <c r="E50" s="11">
+        <v>67.069000000000003</v>
+      </c>
+      <c r="F50" s="11">
+        <v>77.868117000000012</v>
+      </c>
+      <c r="G50" s="11">
+        <v>89.990096999999992</v>
+      </c>
+      <c r="H50" s="11">
+        <v>108.31240699999999</v>
+      </c>
+      <c r="I50" s="11">
+        <v>119.38268500000001</v>
+      </c>
+      <c r="J50" s="11">
+        <v>122.337658</v>
+      </c>
+      <c r="K50" s="11">
+        <v>113.68425400000001</v>
+      </c>
+      <c r="L50" s="11">
+        <v>112.12539899999999</v>
+      </c>
+      <c r="M50" s="11">
+        <v>124.67310699999999</v>
+      </c>
+      <c r="N50" s="11">
+        <v>133.09398999999999</v>
+      </c>
+      <c r="O50" s="11">
+        <v>125.95339499999999</v>
+      </c>
+      <c r="P50" s="11">
+        <v>140.81420900000001</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>135.51182299999999</v>
+      </c>
+      <c r="R50" s="11">
+        <v>130.160698</v>
+      </c>
+      <c r="S50" s="11">
+        <v>131.35127800000001</v>
+      </c>
+      <c r="T50" s="11">
+        <v>136.64260400000001</v>
+      </c>
+      <c r="U50" s="11">
+        <v>149.54374799999999</v>
+      </c>
+      <c r="V50" s="11">
+        <v>164.675239</v>
+      </c>
+      <c r="W50" s="11">
+        <v>161.549949</v>
+      </c>
+      <c r="X50" s="11">
+        <v>165.52240800000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="11">
+        <v>16.902000000000001</v>
+      </c>
+      <c r="C51" s="11">
+        <v>17.545249999999999</v>
+      </c>
+      <c r="D51" s="11">
+        <v>19.453749999999999</v>
+      </c>
+      <c r="E51" s="11">
+        <v>18.987500000000001</v>
+      </c>
+      <c r="F51" s="11">
+        <v>17.58775</v>
+      </c>
+      <c r="G51" s="11">
+        <v>17.08925</v>
+      </c>
+      <c r="H51" s="11">
+        <v>17.6935</v>
+      </c>
+      <c r="I51" s="11">
+        <v>18.34075</v>
+      </c>
+      <c r="J51" s="11">
+        <v>16.4495</v>
+      </c>
+      <c r="K51" s="11">
+        <v>15.85436</v>
+      </c>
+      <c r="L51" s="11">
+        <v>20.54393</v>
+      </c>
+      <c r="M51" s="11">
+        <v>27.771439999999998</v>
+      </c>
+      <c r="N51" s="11">
+        <v>32.431448000000003</v>
+      </c>
+      <c r="O51" s="11">
+        <v>33.206530000000001</v>
+      </c>
+      <c r="P51" s="11">
+        <v>34.696228000000005</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>36.429559999999995</v>
+      </c>
+      <c r="R51" s="11">
+        <v>37.539182000000004</v>
+      </c>
+      <c r="S51" s="11">
+        <v>38.023432</v>
+      </c>
+      <c r="T51" s="11">
+        <v>38.212739999999997</v>
+      </c>
+      <c r="U51" s="11">
+        <v>39.977561999999999</v>
+      </c>
+      <c r="V51" s="11">
+        <v>45.611607999999997</v>
+      </c>
+      <c r="W51" s="11">
+        <v>44.049824999999998</v>
+      </c>
+      <c r="X51" s="11">
+        <v>46.799295000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="11">
+        <v>10.534576999999999</v>
+      </c>
+      <c r="C52" s="11">
+        <v>10.857251</v>
+      </c>
+      <c r="D52" s="11">
+        <v>12.058078</v>
+      </c>
+      <c r="E52" s="11">
+        <v>12.496026000000001</v>
+      </c>
+      <c r="F52" s="11">
+        <v>11.376001</v>
+      </c>
+      <c r="G52" s="11">
+        <v>10.674882</v>
+      </c>
+      <c r="H52" s="11">
+        <v>11.773006000000001</v>
+      </c>
+      <c r="I52" s="11">
+        <v>12.969194</v>
+      </c>
+      <c r="J52" s="11">
+        <v>14.370290000000001</v>
+      </c>
+      <c r="K52" s="11">
+        <v>14.358307999999999</v>
+      </c>
+      <c r="L52" s="11">
+        <v>12.195684000000002</v>
+      </c>
+      <c r="M52" s="11">
+        <v>10.572419999999999</v>
+      </c>
+      <c r="N52" s="11">
+        <v>9.518834</v>
+      </c>
+      <c r="O52" s="11">
+        <v>10.943483000000001</v>
+      </c>
+      <c r="P52" s="11">
+        <v>11.247141999999998</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>11.032321</v>
+      </c>
+      <c r="R52" s="11">
+        <v>9.4083230000000011</v>
+      </c>
+      <c r="S52" s="11">
+        <v>9.601699</v>
+      </c>
+      <c r="T52" s="11">
+        <v>8.1454219999999999</v>
+      </c>
+      <c r="U52" s="11">
+        <v>5.2706969999999993</v>
+      </c>
+      <c r="V52" s="11">
+        <v>3.1995179999999999</v>
+      </c>
+      <c r="W52" s="11">
+        <v>4.1615610000000007</v>
+      </c>
+      <c r="X52" s="11">
+        <v>4.3097060000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1.464E-3</v>
+      </c>
+      <c r="C53" s="11">
+        <v>7.4720000000000003E-3</v>
+      </c>
+      <c r="D53" s="11">
+        <v>9.0519999999999993E-3</v>
+      </c>
+      <c r="E53" s="11">
+        <v>1.0645E-2</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1.0544000000000001E-2</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1.8142999999999999E-2</v>
+      </c>
+      <c r="H53" s="11">
+        <v>1.5491E-2</v>
+      </c>
+      <c r="I53" s="11">
+        <v>3.9549000000000001E-2</v>
+      </c>
+      <c r="J53" s="11">
+        <v>4.2463000000000001E-2</v>
+      </c>
+      <c r="K53" s="11">
+        <v>5.1078999999999999E-2</v>
+      </c>
+      <c r="L53" s="11">
+        <v>6.9766999999999996E-2</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0.31400400000000001</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0.97958699999999999</v>
+      </c>
+      <c r="O53" s="11">
+        <v>1.689214</v>
+      </c>
+      <c r="P53" s="11">
+        <v>3.1044340000000004</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>5.9842300000000002</v>
+      </c>
+      <c r="R53" s="11">
+        <v>10.186408999999999</v>
+      </c>
+      <c r="S53" s="11">
+        <v>18.135192</v>
+      </c>
+      <c r="T53" s="11">
+        <v>31.106489</v>
+      </c>
+      <c r="U53" s="11">
+        <v>43.933394999999997</v>
+      </c>
+      <c r="V53" s="11">
+        <v>55.098596999999998</v>
+      </c>
+      <c r="W53" s="11">
+        <v>66.237630999999993</v>
+      </c>
+      <c r="X53" s="11">
+        <v>83.631500000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1.3189059999999999</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1.5368539999999999</v>
+      </c>
+      <c r="D54" s="11">
+        <v>2.205768</v>
+      </c>
+      <c r="E54" s="11">
+        <v>2.5505619999999998</v>
+      </c>
+      <c r="F54" s="11">
+        <v>3.9230779999999998</v>
+      </c>
+      <c r="G54" s="11">
+        <v>5.5618639999999999</v>
+      </c>
+      <c r="H54" s="11">
+        <v>6.8736920000000001</v>
+      </c>
+      <c r="I54" s="11">
+        <v>9.3870480000000001</v>
+      </c>
+      <c r="J54" s="11">
+        <v>11.835130999999999</v>
+      </c>
+      <c r="K54" s="11">
+        <v>14.595036</v>
+      </c>
+      <c r="L54" s="11">
+        <v>16.104033999999999</v>
+      </c>
+      <c r="M54" s="11">
+        <v>19.528141999999999</v>
+      </c>
+      <c r="N54" s="11">
+        <v>23.069179999999999</v>
+      </c>
+      <c r="O54" s="11">
+        <v>24.639953000000002</v>
+      </c>
+      <c r="P54" s="11">
+        <v>27.235366000000003</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>31.872871</v>
+      </c>
+      <c r="R54" s="11">
+        <v>36.273128</v>
+      </c>
+      <c r="S54" s="11">
+        <v>47.669778000000001</v>
+      </c>
+      <c r="T54" s="11">
+        <v>55.008661999999994</v>
+      </c>
+      <c r="U54" s="11">
+        <v>62.688877999999995</v>
+      </c>
+      <c r="V54" s="11">
+        <v>63.522264999999997</v>
+      </c>
+      <c r="W54" s="11">
+        <v>62.272480000000002</v>
+      </c>
+      <c r="X54" s="11">
+        <v>69.433592000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A58" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G59" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H59" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I59" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J59" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L59" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M59" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N59" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O59" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P59" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R59" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S59" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T59" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U59" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V59" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W59" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X59" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y59" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="D60" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1.22</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1.51</v>
+      </c>
+      <c r="J60" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="K60" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="L60" s="11">
+        <v>3.08</v>
+      </c>
+      <c r="M60" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="N60" s="11">
+        <v>3.84</v>
+      </c>
+      <c r="O60" s="11">
+        <v>4.08</v>
+      </c>
+      <c r="P60" s="11">
+        <v>4.91</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>5.34</v>
+      </c>
+      <c r="R60" s="11">
+        <v>8.76</v>
+      </c>
+      <c r="S60" s="11">
+        <v>9.27</v>
+      </c>
+      <c r="T60" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="U60" s="11">
+        <v>10.06</v>
+      </c>
+      <c r="V60" s="11">
+        <v>10.35</v>
+      </c>
+      <c r="W60" s="11">
+        <v>10.37</v>
+      </c>
+      <c r="X60" s="11">
+        <v>10.41</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="11">
+        <v>62.17</v>
+      </c>
+      <c r="C61" s="11">
+        <v>63.17</v>
+      </c>
+      <c r="D61" s="11">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="E61" s="11">
+        <v>65.83</v>
+      </c>
+      <c r="F61" s="11">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="G61" s="11">
+        <v>69.64</v>
+      </c>
+      <c r="H61" s="11">
+        <v>71.930000000000007</v>
+      </c>
+      <c r="I61" s="11">
+        <v>77.14</v>
+      </c>
+      <c r="J61" s="11">
+        <v>82.33</v>
+      </c>
+      <c r="K61" s="11">
+        <v>87.79</v>
+      </c>
+      <c r="L61" s="11">
+        <v>99.04</v>
+      </c>
+      <c r="M61" s="11">
+        <v>113.4</v>
+      </c>
+      <c r="N61" s="11">
+        <v>131.56</v>
+      </c>
+      <c r="O61" s="11">
+        <v>149.36000000000001</v>
+      </c>
+      <c r="P61" s="11">
+        <v>169.52</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>189.57</v>
+      </c>
+      <c r="R61" s="11">
+        <v>207.07</v>
+      </c>
+      <c r="S61" s="11">
+        <v>212.46</v>
+      </c>
+      <c r="T61" s="11">
+        <v>217.98</v>
+      </c>
+      <c r="U61" s="11">
+        <v>225.62</v>
+      </c>
+      <c r="V61" s="11">
+        <v>225.83</v>
+      </c>
+      <c r="W61" s="11">
+        <v>231.14</v>
+      </c>
+      <c r="X61" s="11">
+        <v>232.17</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>237.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="11">
+        <v>12.61</v>
+      </c>
+      <c r="C62" s="11">
+        <v>13.42</v>
+      </c>
+      <c r="D62" s="11">
+        <v>14.03</v>
+      </c>
+      <c r="E62" s="11">
+        <v>14.38</v>
+      </c>
+      <c r="F62" s="11">
+        <v>14.59</v>
+      </c>
+      <c r="G62" s="11">
+        <v>15.51</v>
+      </c>
+      <c r="H62" s="11">
+        <v>16.64</v>
+      </c>
+      <c r="I62" s="11">
+        <v>18.59</v>
+      </c>
+      <c r="J62" s="11">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="K62" s="11">
+        <v>21.24</v>
+      </c>
+      <c r="L62" s="11">
+        <v>22.35</v>
+      </c>
+      <c r="M62" s="11">
+        <v>24.06</v>
+      </c>
+      <c r="N62" s="11">
+        <v>23.75</v>
+      </c>
+      <c r="O62" s="11">
+        <v>26.47</v>
+      </c>
+      <c r="P62" s="11">
+        <v>28.14</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>30.17</v>
+      </c>
+      <c r="R62" s="11">
+        <v>31.37</v>
+      </c>
+      <c r="S62" s="11">
+        <v>32.04</v>
+      </c>
+      <c r="T62" s="11">
+        <v>33.32</v>
+      </c>
+      <c r="U62" s="11">
+        <v>32.619999999999997</v>
+      </c>
+      <c r="V62" s="11">
+        <v>32.31</v>
+      </c>
+      <c r="W62" s="11">
+        <v>32.29</v>
+      </c>
+      <c r="X62" s="11">
+        <v>32.22</v>
+      </c>
+      <c r="Y62" s="11">
+        <v>32.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" s="11">
+        <v>23.71</v>
+      </c>
+      <c r="C63" s="11">
+        <v>24.68</v>
+      </c>
+      <c r="D63" s="11">
+        <v>24.73</v>
+      </c>
+      <c r="E63" s="11">
+        <v>27.18</v>
+      </c>
+      <c r="F63" s="11">
+        <v>28.62</v>
+      </c>
+      <c r="G63" s="11">
+        <v>30.96</v>
+      </c>
+      <c r="H63" s="11">
+        <v>33.04</v>
+      </c>
+      <c r="I63" s="11">
+        <v>34</v>
+      </c>
+      <c r="J63" s="11">
+        <v>34.69</v>
+      </c>
+      <c r="K63" s="11">
+        <v>34.78</v>
+      </c>
+      <c r="L63" s="11">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="M63" s="11">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="N63" s="11">
+        <v>38.25</v>
+      </c>
+      <c r="O63" s="11">
+        <v>39.39</v>
+      </c>
+      <c r="P63" s="11">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>42.32</v>
+      </c>
+      <c r="R63" s="11">
+        <v>42.84</v>
+      </c>
+      <c r="S63" s="11">
+        <v>44.74</v>
+      </c>
+      <c r="T63" s="11">
+        <v>45.32</v>
+      </c>
+      <c r="U63" s="11">
+        <v>45.49</v>
+      </c>
+      <c r="V63" s="11">
+        <v>45.98</v>
+      </c>
+      <c r="W63" s="11">
+        <v>46.78</v>
+      </c>
+      <c r="X63" s="11">
+        <v>47.22</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>47.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2.86</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="D64" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="E64" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="F64" s="11">
+        <v>2.77</v>
+      </c>
+      <c r="G64" s="11">
+        <v>3.36</v>
+      </c>
+      <c r="H64" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="I64" s="11">
+        <v>4.12</v>
+      </c>
+      <c r="J64" s="11">
+        <v>4.12</v>
+      </c>
+      <c r="K64" s="11">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L64" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="M64" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="N64" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="O64" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="P64" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="R64" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="S64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="T64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="U64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="V64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="W64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="X64" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="11">
+        <v>6.79</v>
+      </c>
+      <c r="C65" s="11">
+        <v>7.06</v>
+      </c>
+      <c r="D65" s="11">
+        <v>7.43</v>
+      </c>
+      <c r="E65" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="F65" s="11">
+        <v>8.16</v>
+      </c>
+      <c r="G65" s="11">
+        <v>8.56</v>
+      </c>
+      <c r="H65" s="11">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="I65" s="11">
+        <v>9.66</v>
+      </c>
+      <c r="J65" s="11">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K65" s="11">
+        <v>10.53</v>
+      </c>
+      <c r="L65" s="11">
+        <v>10.87</v>
+      </c>
+      <c r="M65" s="11">
+        <v>11.16</v>
+      </c>
+      <c r="N65" s="11">
+        <v>12.14</v>
+      </c>
+      <c r="O65" s="11">
+        <v>12.67</v>
+      </c>
+      <c r="P65" s="11">
+        <v>13.19</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>13.39</v>
+      </c>
+      <c r="R65" s="11">
+        <v>14.08</v>
+      </c>
+      <c r="S65" s="11">
+        <v>14.18</v>
+      </c>
+      <c r="T65" s="11">
+        <v>15.76</v>
+      </c>
+      <c r="U65" s="11">
+        <v>14.15</v>
+      </c>
+      <c r="V65" s="11">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="W65" s="11">
+        <v>18.39</v>
+      </c>
+      <c r="X65" s="11">
+        <v>18.55</v>
+      </c>
+      <c r="Y65" s="11">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0.04</v>
+      </c>
+      <c r="L66" s="11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="O66" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="P66" s="11">
+        <v>3.78</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>5.7</v>
+      </c>
+      <c r="R66" s="11">
+        <v>9.98</v>
+      </c>
+      <c r="S66" s="11">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="T66" s="11">
+        <v>27.48</v>
+      </c>
+      <c r="U66" s="11">
+        <v>35.25</v>
+      </c>
+      <c r="V66" s="11">
+        <v>39.71</v>
+      </c>
+      <c r="W66" s="11">
+        <v>49.95</v>
+      </c>
+      <c r="X66" s="11">
+        <v>63.39</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1.56</v>
+      </c>
+      <c r="D67" s="11">
+        <v>1.61</v>
+      </c>
+      <c r="E67" s="11">
+        <v>2.46</v>
+      </c>
+      <c r="F67" s="11">
+        <v>3.81</v>
+      </c>
+      <c r="G67" s="11">
+        <v>4.43</v>
+      </c>
+      <c r="H67" s="11">
+        <v>6.32</v>
+      </c>
+      <c r="I67" s="11">
+        <v>7.84</v>
+      </c>
+      <c r="J67" s="11">
+        <v>10.24</v>
+      </c>
+      <c r="K67" s="11">
+        <v>10.93</v>
+      </c>
+      <c r="L67" s="11">
+        <v>13.18</v>
+      </c>
+      <c r="M67" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="N67" s="11">
+        <v>17.3</v>
+      </c>
+      <c r="O67" s="11">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="P67" s="11">
+        <v>22.47</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>25.09</v>
+      </c>
+      <c r="R67" s="11">
+        <v>28.7</v>
+      </c>
+      <c r="S67" s="11">
+        <v>32.85</v>
+      </c>
+      <c r="T67" s="11">
+        <v>35.29</v>
+      </c>
+      <c r="U67" s="11">
+        <v>37.51</v>
+      </c>
+      <c r="V67" s="11">
+        <v>38.56</v>
+      </c>
+      <c r="W67" s="11">
+        <v>40.07</v>
+      </c>
+      <c r="X67" s="11">
+        <v>41.93</v>
+      </c>
+      <c r="Y67" s="11">
+        <v>44.74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A70" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2001</v>
+      </c>
+      <c r="D71" s="8">
+        <v>2002</v>
+      </c>
+      <c r="E71" s="8">
+        <v>2003</v>
+      </c>
+      <c r="F71" s="8">
+        <v>2004</v>
+      </c>
+      <c r="G71" s="8">
+        <v>2005</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I71" s="8">
+        <v>2007</v>
+      </c>
+      <c r="J71" s="8">
+        <v>2008</v>
+      </c>
+      <c r="K71" s="8">
+        <v>2009</v>
+      </c>
+      <c r="L71" s="8">
+        <v>2010</v>
+      </c>
+      <c r="M71" s="8">
+        <v>2011</v>
+      </c>
+      <c r="N71" s="8">
+        <v>2012</v>
+      </c>
+      <c r="O71" s="8">
+        <v>2013</v>
+      </c>
+      <c r="P71" s="8">
+        <v>2014</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>2015</v>
+      </c>
+      <c r="R71" s="8">
+        <v>2016</v>
+      </c>
+      <c r="S71" s="8">
+        <v>2017</v>
+      </c>
+      <c r="T71" s="8">
+        <v>2018</v>
+      </c>
+      <c r="U71" s="8">
+        <v>2019</v>
+      </c>
+      <c r="V71" s="8">
+        <v>2020</v>
+      </c>
+      <c r="W71" s="8">
+        <v>2021</v>
+      </c>
+      <c r="X71" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Y71" s="8">
+        <v>2023</v>
+      </c>
+      <c r="Z71" s="8">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.48393000000000003</v>
+      </c>
+      <c r="E72" s="11">
+        <v>0.61342999999999992</v>
+      </c>
+      <c r="F72" s="11">
+        <v>0.74952999999999992</v>
+      </c>
+      <c r="G72" s="11">
+        <v>0.96038999999999997</v>
+      </c>
+      <c r="H72" s="11">
+        <v>1.24814</v>
+      </c>
+      <c r="I72" s="11">
+        <v>1.546835</v>
+      </c>
+      <c r="J72" s="11">
+        <v>2.212809</v>
+      </c>
+      <c r="K72" s="11">
+        <v>2.5113840000000001</v>
+      </c>
+      <c r="L72" s="11">
+        <v>3.1445060000000002</v>
+      </c>
+      <c r="M72" s="11">
+        <v>3.677165</v>
+      </c>
+      <c r="N72" s="11">
+        <v>3.9289209999999999</v>
+      </c>
+      <c r="O72" s="11">
+        <v>4.1803479999999995</v>
+      </c>
+      <c r="P72" s="11">
+        <v>5.0300799999999999</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>5.4782159999999998</v>
+      </c>
+      <c r="R72" s="11">
+        <v>8.8951709999999995</v>
+      </c>
+      <c r="S72" s="11">
+        <v>9.4171760000000013</v>
+      </c>
+      <c r="T72" s="11">
+        <v>10.137402</v>
+      </c>
+      <c r="U72" s="11">
+        <v>10.225634000000001</v>
+      </c>
+      <c r="V72" s="11">
+        <v>10.532757000000002</v>
+      </c>
+      <c r="W72" s="11">
+        <v>10.591823999999999</v>
+      </c>
+      <c r="X72" s="11">
+        <v>10.669084</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>10.752414</v>
+      </c>
+      <c r="Z72" s="11">
+        <v>11.237339</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="11">
+        <v>69.255873000000008</v>
+      </c>
+      <c r="C73" s="11">
+        <v>70.782400999999993</v>
+      </c>
+      <c r="D73" s="11">
+        <v>73.144439000000006</v>
+      </c>
+      <c r="E73" s="11">
+        <v>74.691476999999992</v>
+      </c>
+      <c r="F73" s="11">
+        <v>78.068515000000005</v>
+      </c>
+      <c r="G73" s="11">
+        <v>79.338553000000005</v>
+      </c>
+      <c r="H73" s="11">
+        <v>82.408265</v>
+      </c>
+      <c r="I73" s="11">
+        <v>87.691500000000005</v>
+      </c>
+      <c r="J73" s="11">
+        <v>90.953500000000005</v>
+      </c>
+      <c r="K73" s="11">
+        <v>100.53975</v>
+      </c>
+      <c r="L73" s="11">
+        <v>112.54774999999999</v>
+      </c>
+      <c r="M73" s="11">
+        <v>133.76124999999999</v>
+      </c>
+      <c r="N73" s="11">
+        <v>153.79225</v>
+      </c>
+      <c r="O73" s="11">
+        <v>169.80918499999999</v>
+      </c>
+      <c r="P73" s="11">
+        <v>190.390218</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>213.210836</v>
+      </c>
+      <c r="R73" s="11">
+        <v>218.58873600000001</v>
+      </c>
+      <c r="S73" s="11">
+        <v>225.25529500000002</v>
+      </c>
+      <c r="T73" s="11">
+        <v>241.42537400000001</v>
+      </c>
+      <c r="U73" s="11">
+        <v>255.83132800000001</v>
+      </c>
+      <c r="V73" s="11">
+        <v>254.82983199999998</v>
+      </c>
+      <c r="W73" s="11">
+        <v>255.726427</v>
+      </c>
+      <c r="X73" s="11">
+        <v>256.971182</v>
+      </c>
+      <c r="Y73" s="11">
+        <v>261.39551</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>266.03300000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="11">
+        <v>12.614723</v>
+      </c>
+      <c r="C74" s="11">
+        <v>13.421867000000001</v>
+      </c>
+      <c r="D74" s="11">
+        <v>14.033393</v>
+      </c>
+      <c r="E74" s="11">
+        <v>14.381917999999999</v>
+      </c>
+      <c r="F74" s="11">
+        <v>14.593442999999999</v>
+      </c>
+      <c r="G74" s="11">
+        <v>15.514968000000001</v>
+      </c>
+      <c r="H74" s="11">
+        <v>16.639087</v>
+      </c>
+      <c r="I74" s="11">
+        <v>18.586749999999999</v>
+      </c>
+      <c r="J74" s="11">
+        <v>18.645</v>
+      </c>
+      <c r="K74" s="11">
+        <v>21.23725</v>
+      </c>
+      <c r="L74" s="11">
+        <v>22.3475</v>
+      </c>
+      <c r="M74" s="11">
+        <v>24.058250000000001</v>
+      </c>
+      <c r="N74" s="11">
+        <v>23.74775</v>
+      </c>
+      <c r="O74" s="11">
+        <v>26.470012000000001</v>
+      </c>
+      <c r="P74" s="11">
+        <v>28.145063999999998</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>30.171325</v>
+      </c>
+      <c r="R74" s="11">
+        <v>31.365940999999999</v>
+      </c>
+      <c r="S74" s="11">
+        <v>32.044958000000001</v>
+      </c>
+      <c r="T74" s="11">
+        <v>33.316661000000003</v>
+      </c>
+      <c r="U74" s="11">
+        <v>32.620902999999998</v>
+      </c>
+      <c r="V74" s="11">
+        <v>32.306310000000003</v>
+      </c>
+      <c r="W74" s="11">
+        <v>31.003724999999999</v>
+      </c>
+      <c r="X74" s="11">
+        <v>30.520522</v>
+      </c>
+      <c r="Y74" s="11">
+        <v>30.738209999999999</v>
+      </c>
+      <c r="Z74" s="11">
+        <v>30.51821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="11">
+        <v>25.246600999999998</v>
+      </c>
+      <c r="C75" s="11">
+        <v>26.368372000000001</v>
+      </c>
+      <c r="D75" s="11">
+        <v>26.869854</v>
+      </c>
+      <c r="E75" s="11">
+        <v>29.614084000000002</v>
+      </c>
+      <c r="F75" s="11">
+        <v>31.054525999999999</v>
+      </c>
+      <c r="G75" s="11">
+        <v>34.191386999999999</v>
+      </c>
+      <c r="H75" s="11">
+        <v>36.680190999999994</v>
+      </c>
+      <c r="I75" s="11">
+        <v>38.081439999999994</v>
+      </c>
+      <c r="J75" s="11">
+        <v>39.473061999999999</v>
+      </c>
+      <c r="K75" s="11">
+        <v>39.561553000000004</v>
+      </c>
+      <c r="L75" s="11">
+        <v>40.650650000000006</v>
+      </c>
+      <c r="M75" s="11">
+        <v>42.418948</v>
+      </c>
+      <c r="N75" s="11">
+        <v>43.030622000000001</v>
+      </c>
+      <c r="O75" s="11">
+        <v>44.173751000000003</v>
+      </c>
+      <c r="P75" s="11">
+        <v>45.406352999999996</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>47.104570000000002</v>
+      </c>
+      <c r="R75" s="11">
+        <v>47.622265000000006</v>
+      </c>
+      <c r="S75" s="11">
+        <v>49.520788000000003</v>
+      </c>
+      <c r="T75" s="11">
+        <v>50.102229000000001</v>
+      </c>
+      <c r="U75" s="11">
+        <v>50.279372000000002</v>
+      </c>
+      <c r="V75" s="11">
+        <v>50.763076000000005</v>
+      </c>
+      <c r="W75" s="11">
+        <v>51.566144000000001</v>
+      </c>
+      <c r="X75" s="11">
+        <v>52.009145000000004</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>52.121595000000006</v>
+      </c>
+      <c r="Z75" s="11">
+        <v>52.293395000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2.86</v>
+      </c>
+      <c r="C76" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="D76" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="E76" s="11">
+        <v>2.72</v>
+      </c>
+      <c r="F76" s="11">
+        <v>2.77</v>
+      </c>
+      <c r="G76" s="11">
+        <v>3.36</v>
+      </c>
+      <c r="H76" s="11">
+        <v>3.9</v>
+      </c>
+      <c r="I76" s="11">
+        <v>4.12</v>
+      </c>
+      <c r="J76" s="11">
+        <v>4.12</v>
+      </c>
+      <c r="K76" s="11">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="L76" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="M76" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="N76" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="O76" s="11">
+        <v>4.78</v>
+      </c>
+      <c r="P76" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="R76" s="11">
+        <v>5.78</v>
+      </c>
+      <c r="S76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="T76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="U76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="V76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="W76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="X76" s="11">
+        <v>6.78</v>
+      </c>
+      <c r="Y76" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="Z76" s="11">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="11">
+        <v>6.7865200000000003</v>
+      </c>
+      <c r="C77" s="11">
+        <v>7.0619730000000001</v>
+      </c>
+      <c r="D77" s="11">
+        <v>7.4292449999999999</v>
+      </c>
+      <c r="E77" s="11">
+        <v>7.7965159999999996</v>
+      </c>
+      <c r="F77" s="11">
+        <v>8.163787000000001</v>
+      </c>
+      <c r="G77" s="11">
+        <v>8.5560480000000005</v>
+      </c>
+      <c r="H77" s="11">
+        <v>8.8759589999999999</v>
+      </c>
+      <c r="I77" s="11">
+        <v>9.6582249999999998</v>
+      </c>
+      <c r="J77" s="11">
+        <v>9.9729850000000013</v>
+      </c>
+      <c r="K77" s="11">
+        <v>10.533329999999999</v>
+      </c>
+      <c r="L77" s="11">
+        <v>10.874392</v>
+      </c>
+      <c r="M77" s="11">
+        <v>11.163295</v>
+      </c>
+      <c r="N77" s="11">
+        <v>12.143818</v>
+      </c>
+      <c r="O77" s="11">
+        <v>12.666102</v>
+      </c>
+      <c r="P77" s="11">
+        <v>13.188933</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>13.392975</v>
+      </c>
+      <c r="R77" s="11">
+        <v>14.075264999999998</v>
+      </c>
+      <c r="S77" s="11">
+        <v>14.179892000000001</v>
+      </c>
+      <c r="T77" s="11">
+        <v>15.760520999999999</v>
+      </c>
+      <c r="U77" s="11">
+        <v>14.148911</v>
+      </c>
+      <c r="V77" s="11">
+        <v>17.063198999999997</v>
+      </c>
+      <c r="W77" s="11">
+        <v>19.104064999999999</v>
+      </c>
+      <c r="X77" s="11">
+        <v>19.91151</v>
+      </c>
+      <c r="Y77" s="11">
+        <v>20.080645000000001</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>20.099170000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11">
+        <v>5.535E-3</v>
+      </c>
+      <c r="D78" s="11">
+        <v>6.705E-3</v>
+      </c>
+      <c r="E78" s="11">
+        <v>7.8849999999999996E-3</v>
+      </c>
+      <c r="F78" s="11">
+        <v>7.8099999999999992E-3</v>
+      </c>
+      <c r="G78" s="11">
+        <v>1.3439E-2</v>
+      </c>
+      <c r="H78" s="11">
+        <v>1.1474999999999999E-2</v>
+      </c>
+      <c r="I78" s="11">
+        <v>2.8830999999999999E-2</v>
+      </c>
+      <c r="J78" s="11">
+        <v>3.1454000000000003E-2</v>
+      </c>
+      <c r="K78" s="11">
+        <v>4.3094E-2</v>
+      </c>
+      <c r="L78" s="11">
+        <v>6.883199999999999E-2</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0.56928499999999993</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0.98557099999999997</v>
+      </c>
+      <c r="O78" s="11">
+        <v>1.6028199999999999</v>
+      </c>
+      <c r="P78" s="11">
+        <v>3.7760149999999997</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>5.6969899999999996</v>
+      </c>
+      <c r="R78" s="11">
+        <v>9.9821360000000006</v>
+      </c>
+      <c r="S78" s="11">
+        <v>18.256847</v>
+      </c>
+      <c r="T78" s="11">
+        <v>27.484721</v>
+      </c>
+      <c r="U78" s="11">
+        <v>35.250193000000003</v>
+      </c>
+      <c r="V78" s="11">
+        <v>39.705453999999996</v>
+      </c>
+      <c r="W78" s="11">
+        <v>49.949916000000002</v>
+      </c>
+      <c r="X78" s="11">
+        <v>63.390404000000004</v>
+      </c>
+      <c r="Y78" s="11">
+        <v>72.85928100000001</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>97.384001000000012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="D79" s="11">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="E79" s="11">
+        <v>2.4609999999999999</v>
+      </c>
+      <c r="F79" s="11">
+        <v>3.8130000000000002</v>
+      </c>
+      <c r="G79" s="11">
+        <v>4.4338999999999995</v>
+      </c>
+      <c r="H79" s="11">
+        <v>6.3150000000000004</v>
+      </c>
+      <c r="I79" s="11">
+        <v>7.8445200000000002</v>
+      </c>
+      <c r="J79" s="11">
+        <v>10.2425</v>
+      </c>
+      <c r="K79" s="11">
+        <v>10.925000000000001</v>
+      </c>
+      <c r="L79" s="11">
+        <v>13.183999999999999</v>
+      </c>
+      <c r="M79" s="11">
+        <v>16.178999999999998</v>
+      </c>
+      <c r="N79" s="11">
+        <v>17.299700000000001</v>
+      </c>
+      <c r="O79" s="11">
+        <v>18.420400000000001</v>
+      </c>
+      <c r="P79" s="11">
+        <v>22.465299999999999</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>25.088189999999997</v>
+      </c>
+      <c r="R79" s="11">
+        <v>28.70044</v>
+      </c>
+      <c r="S79" s="11">
+        <v>32.848459999999996</v>
+      </c>
+      <c r="T79" s="11">
+        <v>35.2881</v>
+      </c>
+      <c r="U79" s="11">
+        <v>37.505180000000003</v>
+      </c>
+      <c r="V79" s="11">
+        <v>38.558599999999998</v>
+      </c>
+      <c r="W79" s="11">
+        <v>40.067264999999999</v>
+      </c>
+      <c r="X79" s="11">
+        <v>41.929780000000001</v>
+      </c>
+      <c r="Y79" s="11">
+        <v>44.736239999999995</v>
+      </c>
+      <c r="Z79" s="11">
+        <v>48.163160000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A85" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="8">
+        <v>2001</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2002</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2003</v>
+      </c>
+      <c r="G86" s="8">
+        <v>2004</v>
+      </c>
+      <c r="H86" s="8">
+        <v>2005</v>
+      </c>
+      <c r="I86" s="8">
+        <v>2006</v>
+      </c>
+      <c r="J86" s="8">
+        <v>2007</v>
+      </c>
+      <c r="K86" s="8">
+        <v>2008</v>
+      </c>
+      <c r="L86" s="8">
+        <v>2009</v>
+      </c>
+      <c r="M86" s="8">
+        <v>2010</v>
+      </c>
+      <c r="N86" s="8">
+        <v>2011</v>
+      </c>
+      <c r="O86" s="8">
+        <v>2012</v>
+      </c>
+      <c r="P86" s="8">
+        <v>2013</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>2014</v>
+      </c>
+      <c r="R86" s="8">
+        <v>2015</v>
+      </c>
+      <c r="S86" s="8">
+        <v>2016</v>
+      </c>
+      <c r="T86" s="8">
+        <v>2017</v>
+      </c>
+      <c r="U86" s="8">
+        <v>2018</v>
+      </c>
+      <c r="V86" s="8">
+        <v>2019</v>
+      </c>
+      <c r="W86" s="8">
+        <v>2020</v>
+      </c>
+      <c r="X86" s="8">
+        <v>2021</v>
+      </c>
+      <c r="Y86" s="8">
+        <v>2022</v>
+      </c>
+      <c r="Z86" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="D87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G87" s="11">
+        <v>0</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="I87" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="J87" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="L87" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="M87" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R87" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S87" s="11">
         <v>6.7</v>
       </c>
-      <c r="G2">
-        <v>0.26</v>
-      </c>
-      <c r="H2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>21.5</v>
-      </c>
-      <c r="D3">
-        <v>21.4</v>
-      </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>21.4</v>
-      </c>
-      <c r="G3">
-        <v>0.46</v>
-      </c>
-      <c r="H3">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>257.3</v>
-      </c>
-      <c r="D4">
-        <v>192.6</v>
-      </c>
-      <c r="E4">
-        <v>217.5</v>
-      </c>
-      <c r="F4">
-        <v>192.1</v>
-      </c>
-      <c r="G4">
-        <v>0.67</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="T87" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="U87" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="V87" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="W87" s="11">
+        <v>9.4</v>
+      </c>
+      <c r="X87" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="Y87" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="Z87" s="11"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>47</v>
       </c>
-      <c r="C5">
-        <v>4.3</v>
-      </c>
-      <c r="E5">
-        <v>4.5</v>
-      </c>
-      <c r="G5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>31.6</v>
-      </c>
-      <c r="E6">
-        <v>35.9</v>
-      </c>
-      <c r="F6">
-        <v>35.6</v>
-      </c>
-      <c r="G6">
-        <v>0.32</v>
-      </c>
-      <c r="H6">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7">
-        <v>10.8</v>
-      </c>
-      <c r="D7">
-        <v>10.8</v>
-      </c>
-      <c r="E7">
-        <v>10.9</v>
-      </c>
-      <c r="F7">
-        <v>10.9</v>
-      </c>
-      <c r="G7">
-        <v>0.77</v>
-      </c>
-      <c r="H7">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>6.7</v>
-      </c>
-      <c r="D8">
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D88" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="G88" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="I88" s="11">
+        <v>3</v>
+      </c>
+      <c r="J88" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="K88" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="L88" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="M88" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="N88" s="11">
         <v>8.4</v>
       </c>
-      <c r="E8">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F8">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="G8">
-        <v>0.11</v>
-      </c>
-      <c r="H8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>28.2</v>
-      </c>
-      <c r="D9">
-        <v>27.9</v>
-      </c>
-      <c r="E9">
-        <v>20.6</v>
-      </c>
-      <c r="F9">
-        <v>20.3</v>
-      </c>
-      <c r="G9">
-        <v>0.25</v>
-      </c>
-      <c r="H9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>22.3</v>
-      </c>
-      <c r="D10">
-        <v>23.1</v>
-      </c>
-      <c r="E10">
-        <v>20.6</v>
-      </c>
-      <c r="F10">
-        <v>20.5</v>
-      </c>
-      <c r="G10">
-        <v>0.31</v>
-      </c>
-      <c r="H10">
-        <v>0.32</v>
-      </c>
+      <c r="O88" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="P88" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="Q88" s="11">
+        <v>5</v>
+      </c>
+      <c r="R88" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="S88" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="T88" s="11">
+        <v>5.6</v>
+      </c>
+      <c r="U88" s="11">
+        <v>4.7</v>
+      </c>
+      <c r="V88" s="11">
+        <v>6.4</v>
+      </c>
+      <c r="W88" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X88" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="Y88" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="Z88" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21279622-CA97-42EE-A452-B29C6C4BAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5169D6AA-46E1-4CB0-964F-8B86526D5EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688F4569-8828-4B7F-9274-8D99A22464CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12FD05E-6CE5-49AE-AEA8-487A8F3D27B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12FD05E-6CE5-49AE-AEA8-487A8F3D27B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3CB2E42-22DE-46EF-B26E-80CC9A8D95ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3CB2E42-22DE-46EF-B26E-80CC9A8D95ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A5501F-9B30-4D43-AE5A-372BEA43CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31A5501F-9B30-4D43-AE5A-372BEA43CB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A569695-21C9-4B5D-A4C7-BBB7C28B1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_IND/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A569695-21C9-4B5D-A4C7-BBB7C28B1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B150A33-93E6-4530-AD2A-0047E93157F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,20 +378,20 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3427,7 +3427,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>390.23</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>55.96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>76.989999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>15.77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>59</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>32</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>34</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>408.29</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>55.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>56</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>57</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>38</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>59</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>32</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>34</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>426.7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>62.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>19.350000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>27.93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>58</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>59</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>441.47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>36</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>56</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>57</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>18.14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>38</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>31.09</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>58</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>59</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>32</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>34</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>463.01</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>36</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>76.58</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>56</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>21.26</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>38</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>58</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>59</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>32</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>34</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>478.48</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>36</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>56</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>97.42</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
         <v>57</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>38</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>25.37</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>58</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
         <v>59</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>32</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>34</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>505.46</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>36</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>74.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>56</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>112.62</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="15" t="s">
         <v>57</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
         <v>38</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>58</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>59</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
         <v>32</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>34</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>533.27</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>36</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>90.05</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>56</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>122.61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
         <v>57</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="17" t="s">
         <v>38</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>58</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="17" t="s">
         <v>59</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
         <v>32</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="17" t="s">
         <v>34</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>573.12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="15" t="s">
         <v>36</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>85.88</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="17" t="s">
         <v>56</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>115.17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="15" t="s">
         <v>57</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>15.23</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
         <v>38</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>15.27</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>34</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>611.11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>104.37</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>56</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>106.34</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>57</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>38</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="15" t="s">
         <v>58</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="17" t="s">
         <v>59</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="15" t="s">
         <v>32</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="17" t="s">
         <v>34</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>642.97</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>36</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>118.03</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="17" t="s">
         <v>56</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>108.74</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="15" t="s">
         <v>57</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="17" t="s">
         <v>38</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="15" t="s">
         <v>58</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="17" t="s">
         <v>59</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>19.46</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="15" t="s">
         <v>32</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>17.14</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="17" t="s">
         <v>34</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>701.25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="15" t="s">
         <v>36</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>117.56</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>56</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>57</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>38</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="15" t="s">
         <v>58</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>59</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="15" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="17" t="s">
         <v>34</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>787.13</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="15" t="s">
         <v>36</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>96.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="17" t="s">
         <v>56</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>115.78</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="15" t="s">
         <v>57</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>33.14</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>38</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="15" t="s">
         <v>58</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>59</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="15" t="s">
         <v>32</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>34</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>847.97</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="15" t="s">
         <v>36</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>66.31</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>56</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>131.97999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="15" t="s">
         <v>57</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>33.31</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>38</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="15" t="s">
         <v>58</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>59</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="15" t="s">
         <v>32</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>34</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>949.93</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>36</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>64.010000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>56</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>57</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>38</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
         <v>58</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>59</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>33.450000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="15" t="s">
         <v>32</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>34</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>1006.55</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="15" t="s">
         <v>36</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>64.77</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>56</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>133.28</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="15" t="s">
         <v>57</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>38.31</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>38</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="15" t="s">
         <v>58</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>59</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>32.74</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>32</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>34</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>1073.5999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="15" t="s">
         <v>36</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>72.62</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>56</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>128.38</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="15" t="s">
         <v>57</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>38</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="15" t="s">
         <v>58</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>59</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>32</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>24.91</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>34</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1115.24</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="15" t="s">
         <v>36</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>74.989999999999995</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>56</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>135.82</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="15" t="s">
         <v>57</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>38</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="15" t="s">
         <v>58</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>21.54</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>59</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>52.63</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="15" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>27.22</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>34</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>1198.8599999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>36</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>71.260000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>56</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>139.75</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>39.049999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>38</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="15" t="s">
         <v>58</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>36.33</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>59</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>60.31</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="15" t="s">
         <v>32</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>31.51</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>34</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>1198.76</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="15" t="s">
         <v>36</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>71.95</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>56</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>162.07</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="15" t="s">
         <v>57</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>45.16</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>38</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="15" t="s">
         <v>58</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>59</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>63.31</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="15" t="s">
         <v>32</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>34</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>1143.78</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="15" t="s">
         <v>36</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>74.790000000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>56</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>163.69999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="15" t="s">
         <v>57</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>44.61</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>38</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="15" t="s">
         <v>58</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>58.68</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>59</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>34</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>1255.56</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>36</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="17" t="s">
         <v>56</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>160.34</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>57</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>43.92</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="17" t="s">
         <v>38</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="15" t="s">
         <v>58</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>68.31</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="17" t="s">
         <v>59</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>68.09</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="15" t="s">
         <v>32</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>38.57</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="17" t="s">
         <v>34</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1354.23</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="15" t="s">
         <v>36</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="17" t="s">
         <v>56</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>174.94</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="15" t="s">
         <v>57</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>46.19</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="17" t="s">
         <v>38</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="15" t="s">
         <v>58</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>95.16</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="17" t="s">
         <v>59</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>70.05</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="15" t="s">
         <v>32</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="17" t="s">
         <v>34</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>1471.28</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="15" t="s">
         <v>36</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>52.61</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="17" t="s">
         <v>56</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>149.16999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>57</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="17" t="s">
         <v>38</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>4.18</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>58</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>113.41</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="17" t="s">
         <v>59</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>32</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="17" t="s">
         <v>34</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>62.17</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="15" t="s">
         <v>36</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="17" t="s">
         <v>56</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="15" t="s">
         <v>57</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="17" t="s">
         <v>38</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="15" t="s">
         <v>58</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="17" t="s">
         <v>59</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="15" t="s">
         <v>32</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="17" t="s">
         <v>34</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>63.17</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="15" t="s">
         <v>36</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="17" t="s">
         <v>56</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="15" t="s">
         <v>57</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="17" t="s">
         <v>38</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>7.06</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="15" t="s">
         <v>58</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="17" t="s">
         <v>59</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="15" t="s">
         <v>32</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="17" t="s">
         <v>34</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>64.209999999999994</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="15" t="s">
         <v>36</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="17" t="s">
         <v>56</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="15" t="s">
         <v>57</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="17" t="s">
         <v>38</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="15" t="s">
         <v>58</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="17" t="s">
         <v>59</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="15" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="17" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>65.83</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="15" t="s">
         <v>36</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="17" t="s">
         <v>56</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="15" t="s">
         <v>57</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="17" t="s">
         <v>38</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="15" t="s">
         <v>58</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="17" t="s">
         <v>59</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="15" t="s">
         <v>32</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="17" t="s">
         <v>34</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="15" t="s">
         <v>36</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="17" t="s">
         <v>56</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="15" t="s">
         <v>57</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="17" t="s">
         <v>38</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="15" t="s">
         <v>58</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="17" t="s">
         <v>59</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="15" t="s">
         <v>32</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="17" t="s">
         <v>34</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="15" t="s">
         <v>36</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="17" t="s">
         <v>56</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="15" t="s">
         <v>57</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="17" t="s">
         <v>38</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="15" t="s">
         <v>58</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="17" t="s">
         <v>59</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="17" t="s">
         <v>34</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>71.930000000000007</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="15" t="s">
         <v>36</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="17" t="s">
         <v>56</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>33.04</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="15" t="s">
         <v>57</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="17" t="s">
         <v>38</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>8.8800000000000008</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="15" t="s">
         <v>58</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="17" t="s">
         <v>59</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="15" t="s">
         <v>32</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="17" t="s">
         <v>34</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="15" t="s">
         <v>36</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="17" t="s">
         <v>56</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="15" t="s">
         <v>57</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="17" t="s">
         <v>38</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="15" t="s">
         <v>58</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="17" t="s">
         <v>59</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="15" t="s">
         <v>32</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="17" t="s">
         <v>34</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>82.33</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="15" t="s">
         <v>36</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="17" t="s">
         <v>56</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="15" t="s">
         <v>57</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="17" t="s">
         <v>38</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="15" t="s">
         <v>58</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="17" t="s">
         <v>59</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="15" t="s">
         <v>32</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="17" t="s">
         <v>34</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>87.79</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="15" t="s">
         <v>36</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="17" t="s">
         <v>56</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="15" t="s">
         <v>57</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="17" t="s">
         <v>38</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="15" t="s">
         <v>58</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="17" t="s">
         <v>59</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="15" t="s">
         <v>32</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="17" t="s">
         <v>34</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>99.04</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="15" t="s">
         <v>36</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="17" t="s">
         <v>56</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="15" t="s">
         <v>57</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="17" t="s">
         <v>38</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>10.87</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="15" t="s">
         <v>58</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="17" t="s">
         <v>59</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="15" t="s">
         <v>32</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="17" t="s">
         <v>34</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>113.4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="15" t="s">
         <v>36</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="17" t="s">
         <v>56</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>37.630000000000003</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="15" t="s">
         <v>57</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="17" t="s">
         <v>38</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="15" t="s">
         <v>58</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="17" t="s">
         <v>59</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="15" t="s">
         <v>32</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="17" t="s">
         <v>34</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>131.56</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="15" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="17" t="s">
         <v>56</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="15" t="s">
         <v>57</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="17" t="s">
         <v>38</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="15" t="s">
         <v>58</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="17" t="s">
         <v>59</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="15" t="s">
         <v>32</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="17" t="s">
         <v>34</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>149.36000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="15" t="s">
         <v>36</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="17" t="s">
         <v>56</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="15" t="s">
         <v>57</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="17" t="s">
         <v>38</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="15" t="s">
         <v>58</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="17" t="s">
         <v>59</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>18.420000000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="15" t="s">
         <v>32</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="17" t="s">
         <v>34</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>169.52</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="15" t="s">
         <v>36</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="17" t="s">
         <v>56</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>40.619999999999997</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="15" t="s">
         <v>57</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="17" t="s">
         <v>38</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="15" t="s">
         <v>58</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="17" t="s">
         <v>59</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>22.47</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="15" t="s">
         <v>32</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="17" t="s">
         <v>34</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>189.57</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="15" t="s">
         <v>36</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="17" t="s">
         <v>56</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="15" t="s">
         <v>57</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="17" t="s">
         <v>38</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>13.39</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="15" t="s">
         <v>58</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="17" t="s">
         <v>59</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>25.09</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="15" t="s">
         <v>32</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="17" t="s">
         <v>34</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>207.07</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="15" t="s">
         <v>36</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="17" t="s">
         <v>56</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>42.84</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="15" t="s">
         <v>57</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="17" t="s">
         <v>38</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="15" t="s">
         <v>58</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="17" t="s">
         <v>59</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="15" t="s">
         <v>32</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>9.27</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="17" t="s">
         <v>34</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>212.46</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="15" t="s">
         <v>36</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>32.04</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="17" t="s">
         <v>56</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="15" t="s">
         <v>57</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="17" t="s">
         <v>38</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="15" t="s">
         <v>58</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>18.260000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="17" t="s">
         <v>59</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="15" t="s">
         <v>32</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>9.98</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="17" t="s">
         <v>34</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>217.98</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="15" t="s">
         <v>36</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="17" t="s">
         <v>56</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>45.32</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="15" t="s">
         <v>57</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="17" t="s">
         <v>38</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="15" t="s">
         <v>58</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="17" t="s">
         <v>59</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="15" t="s">
         <v>32</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="17" t="s">
         <v>34</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>225.62</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="15" t="s">
         <v>36</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>32.619999999999997</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="17" t="s">
         <v>56</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="15" t="s">
         <v>57</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="17" t="s">
         <v>38</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>14.15</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="15" t="s">
         <v>58</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="17" t="s">
         <v>59</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="15" t="s">
         <v>32</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>10.35</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="17" t="s">
         <v>34</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>225.83</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="15" t="s">
         <v>36</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>32.31</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="17" t="s">
         <v>56</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>45.98</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="15" t="s">
         <v>57</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="17" t="s">
         <v>38</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="15" t="s">
         <v>58</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="17" t="s">
         <v>59</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>38.56</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="15" t="s">
         <v>32</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>10.37</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="17" t="s">
         <v>34</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>231.14</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="15" t="s">
         <v>36</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="17" t="s">
         <v>56</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="15" t="s">
         <v>57</v>
       </c>
@@ -8551,7 +8551,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="17" t="s">
         <v>38</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>18.39</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="15" t="s">
         <v>58</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="17" t="s">
         <v>59</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="15" t="s">
         <v>32</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="17" t="s">
         <v>34</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>232.17</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="15" t="s">
         <v>36</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="17" t="s">
         <v>56</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="15" t="s">
         <v>57</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="17" t="s">
         <v>38</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>18.55</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="15" t="s">
         <v>58</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>63.39</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="17" t="s">
         <v>59</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>41.93</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="15" t="s">
         <v>32</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="17" t="s">
         <v>34</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>237.64</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="15" t="s">
         <v>36</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="17" t="s">
         <v>56</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>47.33</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="15" t="s">
         <v>57</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="17" t="s">
         <v>38</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="15" t="s">
         <v>58</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>73.11</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="17" t="s">
         <v>59</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>44.74</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="15" t="s">
         <v>32</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="17" t="s">
         <v>34</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>362.56</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="15" t="s">
         <v>36</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>38.78</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="17" t="s">
         <v>56</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="15" t="s">
         <v>57</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="17" t="s">
         <v>38</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>19.190000000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="15" t="s">
         <v>58</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="17" t="s">
         <v>59</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="15" t="s">
         <v>32</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="17" t="s">
         <v>34</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>379.35</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="15" t="s">
         <v>36</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="17" t="s">
         <v>56</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="15" t="s">
         <v>57</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="17" t="s">
         <v>38</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="15" t="s">
         <v>58</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="17" t="s">
         <v>59</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="15" t="s">
         <v>32</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="17" t="s">
         <v>34</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>396.55</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="15" t="s">
         <v>36</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>43.58</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="17" t="s">
         <v>56</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="15" t="s">
         <v>57</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="17" t="s">
         <v>38</v>
       </c>
@@ -9125,7 +9125,7 @@
         <v>18.38</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="15" t="s">
         <v>58</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="17" t="s">
         <v>59</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="15" t="s">
         <v>32</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="17" t="s">
         <v>34</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>410.39</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="15" t="s">
         <v>36</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>50.46</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="17" t="s">
         <v>56</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="15" t="s">
         <v>57</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="17" t="s">
         <v>38</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="15" t="s">
         <v>58</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="17" t="s">
         <v>59</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="15" t="s">
         <v>32</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="17" t="s">
         <v>34</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>430.44</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="15" t="s">
         <v>36</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>53.08</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="17" t="s">
         <v>56</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="15" t="s">
         <v>57</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="17" t="s">
         <v>38</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="15" t="s">
         <v>58</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="17" t="s">
         <v>59</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="15" t="s">
         <v>32</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="17" t="s">
         <v>34</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>444.76</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="15" t="s">
         <v>36</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>52.31</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="17" t="s">
         <v>56</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="15" t="s">
         <v>57</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="17" t="s">
         <v>38</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>16.690000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="15" t="s">
         <v>58</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="17" t="s">
         <v>59</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="15" t="s">
         <v>32</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="17" t="s">
         <v>34</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>469.78</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="15" t="s">
         <v>36</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>51.77</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="17" t="s">
         <v>56</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="15" t="s">
         <v>57</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="17" t="s">
         <v>38</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>12.55</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="15" t="s">
         <v>58</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="17" t="s">
         <v>59</v>
       </c>
@@ -9601,7 +9601,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="15" t="s">
         <v>32</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="17" t="s">
         <v>34</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>495.61</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="15" t="s">
         <v>36</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>62.41</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="17" t="s">
         <v>56</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="15" t="s">
         <v>57</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="17" t="s">
         <v>38</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="15" t="s">
         <v>58</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="17" t="s">
         <v>59</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="15" t="s">
         <v>32</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="17" t="s">
         <v>34</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>532.65</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="15" t="s">
         <v>36</v>
       </c>
@@ -9755,7 +9755,7 @@
         <v>59.52</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="17" t="s">
         <v>56</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="15" t="s">
         <v>57</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="17" t="s">
         <v>38</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="15" t="s">
         <v>58</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="17" t="s">
         <v>59</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="15" t="s">
         <v>32</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="17" t="s">
         <v>34</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>568.04999999999995</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="15" t="s">
         <v>36</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>72.34</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="17" t="s">
         <v>56</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="15" t="s">
         <v>57</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="17" t="s">
         <v>38</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>8.61</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="15" t="s">
         <v>58</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="17" t="s">
         <v>59</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="15" t="s">
         <v>32</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="17" t="s">
         <v>34</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>597.6</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="15" t="s">
         <v>36</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="17" t="s">
         <v>56</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="15" t="s">
         <v>57</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="17" t="s">
         <v>38</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="15" t="s">
         <v>58</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="17" t="s">
         <v>59</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="15" t="s">
         <v>32</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="17" t="s">
         <v>34</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>650.73</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="15" t="s">
         <v>36</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>81.48</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="17" t="s">
         <v>56</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="15" t="s">
         <v>57</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="17" t="s">
         <v>38</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="15" t="s">
         <v>58</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="17" t="s">
         <v>59</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="15" t="s">
         <v>32</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="17" t="s">
         <v>34</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>728.15</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="15" t="s">
         <v>36</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>66.709999999999994</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="17" t="s">
         <v>56</v>
       </c>
@@ -10217,7 +10217,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="15" t="s">
         <v>57</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="17" t="s">
         <v>38</v>
       </c>
@@ -10245,7 +10245,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="15" t="s">
         <v>58</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="17" t="s">
         <v>59</v>
       </c>
@@ -10273,7 +10273,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="15" t="s">
         <v>32</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="17" t="s">
         <v>34</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>782.51</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="15" t="s">
         <v>36</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>45.96</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="17" t="s">
         <v>56</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="15" t="s">
         <v>57</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="17" t="s">
         <v>38</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="15" t="s">
         <v>58</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="17" t="s">
         <v>59</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="15" t="s">
         <v>32</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="17" t="s">
         <v>34</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>874.37</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="15" t="s">
         <v>36</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>44.36</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="17" t="s">
         <v>56</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="15" t="s">
         <v>57</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="17" t="s">
         <v>38</v>
       </c>
@@ -10469,7 +10469,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="15" t="s">
         <v>58</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="17" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="15" t="s">
         <v>32</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="17" t="s">
         <v>34</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>924.16</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="15" t="s">
         <v>36</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="17" t="s">
         <v>56</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="15" t="s">
         <v>57</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="17" t="s">
         <v>38</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="15" t="s">
         <v>58</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="17" t="s">
         <v>59</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="15" t="s">
         <v>32</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="17" t="s">
         <v>34</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>983.7</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="15" t="s">
         <v>36</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>50.33</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="17" t="s">
         <v>56</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="15" t="s">
         <v>57</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="17" t="s">
         <v>38</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="15" t="s">
         <v>58</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="17" t="s">
         <v>59</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="15" t="s">
         <v>32</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="17" t="s">
         <v>34</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>1020.03</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="15" t="s">
         <v>36</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>51.97</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="17" t="s">
         <v>56</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="15" t="s">
         <v>57</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="17" t="s">
         <v>38</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="15" t="s">
         <v>58</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="17" t="s">
         <v>59</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="15" t="s">
         <v>32</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="17" t="s">
         <v>34</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>1095.1600000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="15" t="s">
         <v>36</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="17" t="s">
         <v>56</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="15" t="s">
         <v>57</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="17" t="s">
         <v>38</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="15" t="s">
         <v>58</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="17" t="s">
         <v>59</v>
       </c>
@@ -10945,7 +10945,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="15" t="s">
         <v>32</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="17" t="s">
         <v>34</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>1093.56</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="15" t="s">
         <v>36</v>
       </c>
@@ -10987,7 +10987,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="17" t="s">
         <v>56</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="15" t="s">
         <v>57</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="17" t="s">
         <v>38</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="15" t="s">
         <v>58</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="17" t="s">
         <v>59</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="15" t="s">
         <v>32</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="17" t="s">
         <v>34</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>1042.33</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="15" t="s">
         <v>36</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>51.83</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="17" t="s">
         <v>56</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="15" t="s">
         <v>57</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="17" t="s">
         <v>38</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="15" t="s">
         <v>58</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="17" t="s">
         <v>59</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="15" t="s">
         <v>32</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="17" t="s">
         <v>34</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>1143.42</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="15" t="s">
         <v>36</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>41.86</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="17" t="s">
         <v>56</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="15" t="s">
         <v>57</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="17" t="s">
         <v>38</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="15" t="s">
         <v>58</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="17" t="s">
         <v>59</v>
       </c>
@@ -11281,7 +11281,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="15" t="s">
         <v>32</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="17" t="s">
         <v>34</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1232.5999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="15" t="s">
         <v>36</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>32.21</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="17" t="s">
         <v>56</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="15" t="s">
         <v>57</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="17" t="s">
         <v>38</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="15" t="s">
         <v>58</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="17" t="s">
         <v>59</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="15" t="s">
         <v>32</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="17" t="s">
         <v>34</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>1338.45</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="15" t="s">
         <v>36</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="17" t="s">
         <v>56</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="15" t="s">
         <v>57</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="17" t="s">
         <v>38</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="15" t="s">
         <v>58</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>5.39</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="17" t="s">
         <v>59</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="15" t="s">
         <v>60</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="17" t="s">
         <v>61</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="15" t="s">
         <v>60</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="17" t="s">
         <v>61</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="15" t="s">
         <v>60</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="17" t="s">
         <v>61</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="15" t="s">
         <v>60</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="17" t="s">
         <v>61</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="15" t="s">
         <v>60</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="17" t="s">
         <v>61</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="15" t="s">
         <v>60</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="17" t="s">
         <v>61</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="15" t="s">
         <v>60</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="17" t="s">
         <v>61</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="15" t="s">
         <v>60</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="17" t="s">
         <v>61</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="15" t="s">
         <v>60</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="17" t="s">
         <v>61</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="15" t="s">
         <v>60</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="17" t="s">
         <v>61</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="15" t="s">
         <v>60</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="17" t="s">
         <v>61</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="15" t="s">
         <v>60</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="17" t="s">
         <v>61</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="15" t="s">
         <v>60</v>
       </c>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="D603" s="16"/>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="17" t="s">
         <v>61</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="15" t="s">
         <v>60</v>
       </c>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="D605" s="16"/>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="17" t="s">
         <v>61</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="15" t="s">
         <v>60</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="17" t="s">
         <v>61</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="15" t="s">
         <v>60</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="17" t="s">
         <v>61</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="15" t="s">
         <v>60</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="17" t="s">
         <v>61</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="15" t="s">
         <v>60</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="17" t="s">
         <v>61</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="15" t="s">
         <v>60</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="17" t="s">
         <v>61</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="15" t="s">
         <v>60</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="17" t="s">
         <v>61</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="15" t="s">
         <v>60</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="17" t="s">
         <v>61</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="15" t="s">
         <v>60</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="17" t="s">
         <v>61</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="15" t="s">
         <v>60</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="17" t="s">
         <v>61</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="15" t="s">
         <v>60</v>
       </c>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D625" s="16"/>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="17" t="s">
         <v>61</v>
       </c>
